--- a/OutputFiles/SEPTIEMBRE.xlsx
+++ b/OutputFiles/SEPTIEMBRE.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JTC-USER\OneDrive - jtc.com.co\Escritorio\Alan\Python Projects\OutputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jtccomco-my.sharepoint.com/personal/alan_bohorquez_jtc_com_co/Documents/Escritorio/Alan/Python Projects/OutputFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E72F12-9780-4034-B8BE-F863547F751D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{62E72F12-9780-4034-B8BE-F863547F751D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BF54F08-26FA-46F6-B97A-0EBD5D11C170}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$L$1099</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -2437,9 +2437,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L1099"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="G827" sqref="G827"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2494,7 +2497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -2524,7 +2527,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -2554,7 +2557,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2584,7 +2587,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2614,7 +2617,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2644,7 +2647,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -2674,7 +2677,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2704,7 +2707,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -2734,7 +2737,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -2764,7 +2767,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -2794,7 +2797,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -2824,7 +2827,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2854,7 +2857,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -2884,7 +2887,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -2914,7 +2917,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -2944,7 +2947,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>63</v>
       </c>
@@ -2974,7 +2977,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
@@ -3004,7 +3007,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>63</v>
       </c>
@@ -3034,7 +3037,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
@@ -3066,7 +3069,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>63</v>
       </c>
@@ -3096,7 +3099,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
@@ -3128,7 +3131,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -3158,7 +3161,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -3188,7 +3191,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
@@ -3218,7 +3221,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -3248,7 +3251,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -3278,7 +3281,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
@@ -3308,7 +3311,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -3338,7 +3341,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
@@ -3368,7 +3371,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
@@ -3398,7 +3401,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
@@ -3428,7 +3431,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -3458,7 +3461,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
@@ -3488,7 +3491,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -3518,7 +3521,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -3548,7 +3551,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -3578,7 +3581,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -3608,7 +3611,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -3638,7 +3641,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
@@ -3670,7 +3673,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
@@ -3702,7 +3705,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>37</v>
       </c>
@@ -3734,7 +3737,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>37</v>
       </c>
@@ -3766,7 +3769,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>37</v>
       </c>
@@ -3798,7 +3801,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>37</v>
       </c>
@@ -3830,7 +3833,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>37</v>
       </c>
@@ -3862,7 +3865,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>37</v>
       </c>
@@ -3894,7 +3897,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>37</v>
       </c>
@@ -3926,7 +3929,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>37</v>
       </c>
@@ -3958,7 +3961,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>37</v>
       </c>
@@ -3990,7 +3993,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>37</v>
       </c>
@@ -4022,7 +4025,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>37</v>
       </c>
@@ -4054,7 +4057,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>37</v>
       </c>
@@ -4086,7 +4089,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>37</v>
       </c>
@@ -4118,7 +4121,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>37</v>
       </c>
@@ -4150,7 +4153,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>37</v>
       </c>
@@ -4182,7 +4185,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>37</v>
       </c>
@@ -4214,7 +4217,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>37</v>
       </c>
@@ -4246,7 +4249,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>37</v>
       </c>
@@ -4278,7 +4281,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>37</v>
       </c>
@@ -4310,7 +4313,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>37</v>
       </c>
@@ -4342,7 +4345,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>37</v>
       </c>
@@ -4374,7 +4377,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>37</v>
       </c>
@@ -4406,7 +4409,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>37</v>
       </c>
@@ -4438,7 +4441,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>37</v>
       </c>
@@ -4470,7 +4473,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>37</v>
       </c>
@@ -4502,7 +4505,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>37</v>
       </c>
@@ -4534,7 +4537,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>37</v>
       </c>
@@ -4566,7 +4569,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>37</v>
       </c>
@@ -4598,7 +4601,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>37</v>
       </c>
@@ -4630,7 +4633,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>37</v>
       </c>
@@ -4662,7 +4665,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>37</v>
       </c>
@@ -4694,7 +4697,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>37</v>
       </c>
@@ -4726,7 +4729,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>37</v>
       </c>
@@ -4758,7 +4761,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>37</v>
       </c>
@@ -4790,7 +4793,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>37</v>
       </c>
@@ -4822,7 +4825,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>37</v>
       </c>
@@ -4854,7 +4857,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>37</v>
       </c>
@@ -4886,7 +4889,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>37</v>
       </c>
@@ -4918,7 +4921,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>37</v>
       </c>
@@ -4950,7 +4953,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>37</v>
       </c>
@@ -4982,7 +4985,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>37</v>
       </c>
@@ -5014,7 +5017,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>37</v>
       </c>
@@ -5046,7 +5049,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>37</v>
       </c>
@@ -5078,7 +5081,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>37</v>
       </c>
@@ -5110,7 +5113,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>37</v>
       </c>
@@ -5142,7 +5145,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>37</v>
       </c>
@@ -5174,7 +5177,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>37</v>
       </c>
@@ -5206,7 +5209,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>37</v>
       </c>
@@ -5238,7 +5241,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>37</v>
       </c>
@@ -5270,7 +5273,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>37</v>
       </c>
@@ -5302,7 +5305,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>37</v>
       </c>
@@ -5334,7 +5337,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>37</v>
       </c>
@@ -5366,7 +5369,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>37</v>
       </c>
@@ -5398,7 +5401,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>37</v>
       </c>
@@ -5430,7 +5433,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>37</v>
       </c>
@@ -5462,7 +5465,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>37</v>
       </c>
@@ -5494,7 +5497,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>37</v>
       </c>
@@ -5526,7 +5529,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>37</v>
       </c>
@@ -5558,7 +5561,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>37</v>
       </c>
@@ -5590,7 +5593,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>37</v>
       </c>
@@ -5622,7 +5625,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>37</v>
       </c>
@@ -5654,7 +5657,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>37</v>
       </c>
@@ -5686,7 +5689,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>37</v>
       </c>
@@ -5718,7 +5721,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>37</v>
       </c>
@@ -5750,7 +5753,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>37</v>
       </c>
@@ -5782,7 +5785,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>37</v>
       </c>
@@ -5814,7 +5817,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>37</v>
       </c>
@@ -5846,7 +5849,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>37</v>
       </c>
@@ -5878,7 +5881,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>37</v>
       </c>
@@ -5910,7 +5913,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>37</v>
       </c>
@@ -5942,7 +5945,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>37</v>
       </c>
@@ -5974,7 +5977,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>37</v>
       </c>
@@ -6006,7 +6009,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>37</v>
       </c>
@@ -6038,7 +6041,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>37</v>
       </c>
@@ -6070,7 +6073,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>37</v>
       </c>
@@ -6102,7 +6105,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>37</v>
       </c>
@@ -6134,7 +6137,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>37</v>
       </c>
@@ -6166,7 +6169,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>37</v>
       </c>
@@ -6198,7 +6201,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>37</v>
       </c>
@@ -6230,7 +6233,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>37</v>
       </c>
@@ -6262,7 +6265,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>37</v>
       </c>
@@ -6294,7 +6297,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>37</v>
       </c>
@@ -6326,7 +6329,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>37</v>
       </c>
@@ -6358,7 +6361,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>37</v>
       </c>
@@ -6390,7 +6393,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>37</v>
       </c>
@@ -6422,7 +6425,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>37</v>
       </c>
@@ -6454,7 +6457,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>37</v>
       </c>
@@ -6486,7 +6489,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>37</v>
       </c>
@@ -6518,7 +6521,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>37</v>
       </c>
@@ -6550,7 +6553,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>37</v>
       </c>
@@ -6582,7 +6585,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>37</v>
       </c>
@@ -6614,7 +6617,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>37</v>
       </c>
@@ -6646,7 +6649,7 @@
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
     </row>
-    <row r="134" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>37</v>
       </c>
@@ -6678,7 +6681,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
     </row>
-    <row r="135" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>37</v>
       </c>
@@ -6710,7 +6713,7 @@
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
     </row>
-    <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>37</v>
       </c>
@@ -6742,7 +6745,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
     </row>
-    <row r="137" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>37</v>
       </c>
@@ -6774,7 +6777,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
     </row>
-    <row r="138" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>37</v>
       </c>
@@ -6806,7 +6809,7 @@
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
     </row>
-    <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>37</v>
       </c>
@@ -6838,7 +6841,7 @@
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
     </row>
-    <row r="140" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>37</v>
       </c>
@@ -6870,7 +6873,7 @@
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
     </row>
-    <row r="141" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>37</v>
       </c>
@@ -6902,7 +6905,7 @@
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
     </row>
-    <row r="142" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>37</v>
       </c>
@@ -6934,7 +6937,7 @@
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
     </row>
-    <row r="143" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>37</v>
       </c>
@@ -6966,7 +6969,7 @@
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
     </row>
-    <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>37</v>
       </c>
@@ -6998,7 +7001,7 @@
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
     </row>
-    <row r="145" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>37</v>
       </c>
@@ -7030,7 +7033,7 @@
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
     </row>
-    <row r="146" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>37</v>
       </c>
@@ -7062,7 +7065,7 @@
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
     </row>
-    <row r="147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>37</v>
       </c>
@@ -7094,7 +7097,7 @@
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
     </row>
-    <row r="148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>37</v>
       </c>
@@ -7126,7 +7129,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
     </row>
-    <row r="149" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>37</v>
       </c>
@@ -7158,7 +7161,7 @@
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>37</v>
       </c>
@@ -7190,7 +7193,7 @@
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
     </row>
-    <row r="151" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>37</v>
       </c>
@@ -7222,7 +7225,7 @@
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
     </row>
-    <row r="152" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>37</v>
       </c>
@@ -7254,7 +7257,7 @@
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
     </row>
-    <row r="153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>37</v>
       </c>
@@ -7286,7 +7289,7 @@
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
     </row>
-    <row r="154" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>37</v>
       </c>
@@ -7318,7 +7321,7 @@
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
     </row>
-    <row r="155" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>37</v>
       </c>
@@ -7350,7 +7353,7 @@
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
     </row>
-    <row r="156" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>37</v>
       </c>
@@ -7382,7 +7385,7 @@
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
     </row>
-    <row r="157" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>37</v>
       </c>
@@ -7414,7 +7417,7 @@
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
     </row>
-    <row r="158" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>37</v>
       </c>
@@ -7446,7 +7449,7 @@
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
     </row>
-    <row r="159" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>37</v>
       </c>
@@ -7478,7 +7481,7 @@
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
     </row>
-    <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>37</v>
       </c>
@@ -7510,7 +7513,7 @@
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
     </row>
-    <row r="161" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>37</v>
       </c>
@@ -7542,7 +7545,7 @@
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
     </row>
-    <row r="162" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>37</v>
       </c>
@@ -7574,7 +7577,7 @@
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
     </row>
-    <row r="163" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>37</v>
       </c>
@@ -7604,7 +7607,7 @@
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
     </row>
-    <row r="164" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>37</v>
       </c>
@@ -7634,7 +7637,7 @@
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
     </row>
-    <row r="165" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>37</v>
       </c>
@@ -7664,7 +7667,7 @@
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
     </row>
-    <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>37</v>
       </c>
@@ -7694,7 +7697,7 @@
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
     </row>
-    <row r="167" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>37</v>
       </c>
@@ -7724,7 +7727,7 @@
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
     </row>
-    <row r="168" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>37</v>
       </c>
@@ -7754,7 +7757,7 @@
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
     </row>
-    <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>37</v>
       </c>
@@ -7784,7 +7787,7 @@
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
     </row>
-    <row r="170" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>37</v>
       </c>
@@ -7814,7 +7817,7 @@
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
     </row>
-    <row r="171" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>37</v>
       </c>
@@ -7844,7 +7847,7 @@
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
     </row>
-    <row r="172" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>37</v>
       </c>
@@ -7874,7 +7877,7 @@
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
     </row>
-    <row r="173" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>37</v>
       </c>
@@ -7904,7 +7907,7 @@
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
     </row>
-    <row r="174" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>37</v>
       </c>
@@ -7934,7 +7937,7 @@
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
     </row>
-    <row r="175" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>19</v>
       </c>
@@ -7964,7 +7967,7 @@
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
     </row>
-    <row r="176" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>19</v>
       </c>
@@ -7994,7 +7997,7 @@
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
     </row>
-    <row r="177" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>19</v>
       </c>
@@ -8024,7 +8027,7 @@
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
     </row>
-    <row r="178" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>19</v>
       </c>
@@ -8054,7 +8057,7 @@
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
     </row>
-    <row r="179" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>19</v>
       </c>
@@ -8084,7 +8087,7 @@
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
     </row>
-    <row r="180" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>19</v>
       </c>
@@ -8116,7 +8119,7 @@
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
     </row>
-    <row r="181" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>19</v>
       </c>
@@ -8148,7 +8151,7 @@
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
     </row>
-    <row r="182" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>19</v>
       </c>
@@ -8180,7 +8183,7 @@
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
     </row>
-    <row r="183" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>19</v>
       </c>
@@ -8212,7 +8215,7 @@
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
     </row>
-    <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>19</v>
       </c>
@@ -8244,7 +8247,7 @@
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
     </row>
-    <row r="185" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>19</v>
       </c>
@@ -8276,7 +8279,7 @@
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
     </row>
-    <row r="186" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>19</v>
       </c>
@@ -8308,7 +8311,7 @@
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
     </row>
-    <row r="187" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>19</v>
       </c>
@@ -8340,7 +8343,7 @@
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
     </row>
-    <row r="188" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>19</v>
       </c>
@@ -8372,7 +8375,7 @@
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
     </row>
-    <row r="189" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>19</v>
       </c>
@@ -8404,7 +8407,7 @@
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
     </row>
-    <row r="190" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>19</v>
       </c>
@@ -8434,7 +8437,7 @@
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
     </row>
-    <row r="191" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>19</v>
       </c>
@@ -8464,7 +8467,7 @@
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
     </row>
-    <row r="192" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>19</v>
       </c>
@@ -8494,7 +8497,7 @@
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
     </row>
-    <row r="193" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>19</v>
       </c>
@@ -8524,7 +8527,7 @@
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
     </row>
-    <row r="194" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>19</v>
       </c>
@@ -8554,7 +8557,7 @@
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
     </row>
-    <row r="195" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>19</v>
       </c>
@@ -8584,7 +8587,7 @@
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
     </row>
-    <row r="196" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>19</v>
       </c>
@@ -8614,7 +8617,7 @@
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
     </row>
-    <row r="197" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>19</v>
       </c>
@@ -8644,7 +8647,7 @@
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
     </row>
-    <row r="198" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>19</v>
       </c>
@@ -8674,7 +8677,7 @@
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
     </row>
-    <row r="199" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>19</v>
       </c>
@@ -8704,7 +8707,7 @@
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
     </row>
-    <row r="200" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>19</v>
       </c>
@@ -8734,7 +8737,7 @@
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
     </row>
-    <row r="201" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>19</v>
       </c>
@@ -8764,7 +8767,7 @@
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
     </row>
-    <row r="202" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>19</v>
       </c>
@@ -8794,7 +8797,7 @@
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
     </row>
-    <row r="203" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>19</v>
       </c>
@@ -8824,7 +8827,7 @@
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
     </row>
-    <row r="204" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>19</v>
       </c>
@@ -8854,7 +8857,7 @@
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
     </row>
-    <row r="205" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>19</v>
       </c>
@@ -8884,7 +8887,7 @@
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
     </row>
-    <row r="206" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>19</v>
       </c>
@@ -8914,7 +8917,7 @@
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
     </row>
-    <row r="207" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>199</v>
       </c>
@@ -8942,7 +8945,7 @@
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
     </row>
-    <row r="208" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>199</v>
       </c>
@@ -8972,7 +8975,7 @@
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
     </row>
-    <row r="209" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>199</v>
       </c>
@@ -9004,7 +9007,7 @@
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
     </row>
-    <row r="210" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>199</v>
       </c>
@@ -9036,7 +9039,7 @@
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
     </row>
-    <row r="211" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>199</v>
       </c>
@@ -9068,7 +9071,7 @@
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
     </row>
-    <row r="212" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>199</v>
       </c>
@@ -9100,7 +9103,7 @@
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
     </row>
-    <row r="213" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>199</v>
       </c>
@@ -9132,7 +9135,7 @@
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
     </row>
-    <row r="214" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>216</v>
       </c>
@@ -9168,7 +9171,7 @@
       </c>
       <c r="L214" s="2"/>
     </row>
-    <row r="215" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>216</v>
       </c>
@@ -9204,7 +9207,7 @@
       </c>
       <c r="L215" s="2"/>
     </row>
-    <row r="216" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>111</v>
       </c>
@@ -9240,7 +9243,7 @@
       </c>
       <c r="L216" s="2"/>
     </row>
-    <row r="217" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>111</v>
       </c>
@@ -9272,7 +9275,7 @@
       <c r="K217" s="2"/>
       <c r="L217" s="2"/>
     </row>
-    <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>111</v>
       </c>
@@ -9308,7 +9311,7 @@
       </c>
       <c r="L218" s="2"/>
     </row>
-    <row r="219" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>111</v>
       </c>
@@ -9340,7 +9343,7 @@
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
     </row>
-    <row r="220" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>111</v>
       </c>
@@ -9376,7 +9379,7 @@
       </c>
       <c r="L220" s="2"/>
     </row>
-    <row r="221" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>111</v>
       </c>
@@ -9404,7 +9407,7 @@
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
     </row>
-    <row r="222" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>167</v>
       </c>
@@ -9434,7 +9437,7 @@
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
     </row>
-    <row r="223" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>167</v>
       </c>
@@ -9464,7 +9467,7 @@
       <c r="K223" s="2"/>
       <c r="L223" s="2"/>
     </row>
-    <row r="224" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>167</v>
       </c>
@@ -9494,7 +9497,7 @@
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
     </row>
-    <row r="225" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>167</v>
       </c>
@@ -9524,7 +9527,7 @@
       <c r="K225" s="2"/>
       <c r="L225" s="2"/>
     </row>
-    <row r="226" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>167</v>
       </c>
@@ -9554,7 +9557,7 @@
       <c r="K226" s="2"/>
       <c r="L226" s="2"/>
     </row>
-    <row r="227" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>167</v>
       </c>
@@ -9584,7 +9587,7 @@
       <c r="K227" s="2"/>
       <c r="L227" s="2"/>
     </row>
-    <row r="228" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>167</v>
       </c>
@@ -9614,7 +9617,7 @@
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
     </row>
-    <row r="229" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>167</v>
       </c>
@@ -9646,7 +9649,7 @@
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
     </row>
-    <row r="230" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>167</v>
       </c>
@@ -9678,7 +9681,7 @@
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
     </row>
-    <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>167</v>
       </c>
@@ -9710,7 +9713,7 @@
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
     </row>
-    <row r="232" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>167</v>
       </c>
@@ -9746,7 +9749,7 @@
       </c>
       <c r="L232" s="2"/>
     </row>
-    <row r="233" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>167</v>
       </c>
@@ -9778,7 +9781,7 @@
       <c r="K233" s="2"/>
       <c r="L233" s="2"/>
     </row>
-    <row r="234" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>167</v>
       </c>
@@ -9810,7 +9813,7 @@
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
     </row>
-    <row r="235" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>167</v>
       </c>
@@ -9842,7 +9845,7 @@
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
     </row>
-    <row r="236" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>167</v>
       </c>
@@ -9878,7 +9881,7 @@
       </c>
       <c r="L236" s="2"/>
     </row>
-    <row r="237" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>167</v>
       </c>
@@ -9910,7 +9913,7 @@
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
     </row>
-    <row r="238" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>167</v>
       </c>
@@ -9942,7 +9945,7 @@
       <c r="K238" s="2"/>
       <c r="L238" s="2"/>
     </row>
-    <row r="239" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>167</v>
       </c>
@@ -9974,7 +9977,7 @@
       <c r="K239" s="2"/>
       <c r="L239" s="2"/>
     </row>
-    <row r="240" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>167</v>
       </c>
@@ -10010,7 +10013,7 @@
       </c>
       <c r="L240" s="2"/>
     </row>
-    <row r="241" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>167</v>
       </c>
@@ -10042,7 +10045,7 @@
       <c r="K241" s="2"/>
       <c r="L241" s="2"/>
     </row>
-    <row r="242" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>167</v>
       </c>
@@ -10074,7 +10077,7 @@
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
     </row>
-    <row r="243" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>167</v>
       </c>
@@ -10106,7 +10109,7 @@
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
     </row>
-    <row r="244" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>167</v>
       </c>
@@ -10142,7 +10145,7 @@
       </c>
       <c r="L244" s="2"/>
     </row>
-    <row r="245" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>167</v>
       </c>
@@ -10174,7 +10177,7 @@
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
     </row>
-    <row r="246" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>167</v>
       </c>
@@ -10206,7 +10209,7 @@
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
     </row>
-    <row r="247" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>167</v>
       </c>
@@ -10238,7 +10241,7 @@
       <c r="K247" s="2"/>
       <c r="L247" s="2"/>
     </row>
-    <row r="248" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>167</v>
       </c>
@@ -10274,7 +10277,7 @@
       </c>
       <c r="L248" s="2"/>
     </row>
-    <row r="249" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>167</v>
       </c>
@@ -10304,7 +10307,7 @@
       <c r="K249" s="2"/>
       <c r="L249" s="2"/>
     </row>
-    <row r="250" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>167</v>
       </c>
@@ -10340,7 +10343,7 @@
       </c>
       <c r="L250" s="2"/>
     </row>
-    <row r="251" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>167</v>
       </c>
@@ -10376,7 +10379,7 @@
       </c>
       <c r="L251" s="2"/>
     </row>
-    <row r="252" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>167</v>
       </c>
@@ -10412,7 +10415,7 @@
       </c>
       <c r="L252" s="2"/>
     </row>
-    <row r="253" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>167</v>
       </c>
@@ -10448,7 +10451,7 @@
       </c>
       <c r="L253" s="2"/>
     </row>
-    <row r="254" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>167</v>
       </c>
@@ -10484,7 +10487,7 @@
       </c>
       <c r="L254" s="2"/>
     </row>
-    <row r="255" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>167</v>
       </c>
@@ -10512,7 +10515,7 @@
       <c r="K255" s="2"/>
       <c r="L255" s="2"/>
     </row>
-    <row r="256" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>167</v>
       </c>
@@ -10542,7 +10545,7 @@
       <c r="K256" s="2"/>
       <c r="L256" s="2"/>
     </row>
-    <row r="257" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>167</v>
       </c>
@@ -10572,7 +10575,7 @@
       <c r="K257" s="2"/>
       <c r="L257" s="2"/>
     </row>
-    <row r="258" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>167</v>
       </c>
@@ -10602,7 +10605,7 @@
       <c r="K258" s="2"/>
       <c r="L258" s="2"/>
     </row>
-    <row r="259" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>167</v>
       </c>
@@ -10638,7 +10641,7 @@
       </c>
       <c r="L259" s="2"/>
     </row>
-    <row r="260" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>21</v>
       </c>
@@ -10674,7 +10677,7 @@
       </c>
       <c r="L260" s="2"/>
     </row>
-    <row r="261" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>21</v>
       </c>
@@ -10710,7 +10713,7 @@
       </c>
       <c r="L261" s="2"/>
     </row>
-    <row r="262" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>21</v>
       </c>
@@ -10746,7 +10749,7 @@
       </c>
       <c r="L262" s="2"/>
     </row>
-    <row r="263" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>21</v>
       </c>
@@ -10782,7 +10785,7 @@
       </c>
       <c r="L263" s="2"/>
     </row>
-    <row r="264" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>21</v>
       </c>
@@ -10818,7 +10821,7 @@
       </c>
       <c r="L264" s="2"/>
     </row>
-    <row r="265" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>21</v>
       </c>
@@ -10854,7 +10857,7 @@
       </c>
       <c r="L265" s="2"/>
     </row>
-    <row r="266" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>21</v>
       </c>
@@ -10890,7 +10893,7 @@
       </c>
       <c r="L266" s="2"/>
     </row>
-    <row r="267" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>21</v>
       </c>
@@ -10926,7 +10929,7 @@
       </c>
       <c r="L267" s="2"/>
     </row>
-    <row r="268" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>21</v>
       </c>
@@ -10994,7 +10997,7 @@
       <c r="K269" s="2"/>
       <c r="L269" s="2"/>
     </row>
-    <row r="270" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>21</v>
       </c>
@@ -11026,7 +11029,7 @@
       <c r="K270" s="2"/>
       <c r="L270" s="2"/>
     </row>
-    <row r="271" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>21</v>
       </c>
@@ -11090,7 +11093,7 @@
       <c r="K272" s="2"/>
       <c r="L272" s="2"/>
     </row>
-    <row r="273" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>21</v>
       </c>
@@ -11122,7 +11125,7 @@
       <c r="K273" s="2"/>
       <c r="L273" s="2"/>
     </row>
-    <row r="274" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>21</v>
       </c>
@@ -11186,7 +11189,7 @@
       <c r="K275" s="2"/>
       <c r="L275" s="2"/>
     </row>
-    <row r="276" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>21</v>
       </c>
@@ -11218,7 +11221,7 @@
       <c r="K276" s="2"/>
       <c r="L276" s="2"/>
     </row>
-    <row r="277" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>21</v>
       </c>
@@ -11282,7 +11285,7 @@
       <c r="K278" s="2"/>
       <c r="L278" s="2"/>
     </row>
-    <row r="279" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>21</v>
       </c>
@@ -11314,7 +11317,7 @@
       <c r="K279" s="2"/>
       <c r="L279" s="2"/>
     </row>
-    <row r="280" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>21</v>
       </c>
@@ -11378,7 +11381,7 @@
       <c r="K281" s="2"/>
       <c r="L281" s="2"/>
     </row>
-    <row r="282" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>21</v>
       </c>
@@ -11410,7 +11413,7 @@
       <c r="K282" s="2"/>
       <c r="L282" s="2"/>
     </row>
-    <row r="283" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>21</v>
       </c>
@@ -11442,7 +11445,7 @@
       <c r="K283" s="2"/>
       <c r="L283" s="2"/>
     </row>
-    <row r="284" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>21</v>
       </c>
@@ -11472,7 +11475,7 @@
       <c r="K284" s="2"/>
       <c r="L284" s="2"/>
     </row>
-    <row r="285" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>21</v>
       </c>
@@ -11502,7 +11505,7 @@
       <c r="K285" s="2"/>
       <c r="L285" s="2"/>
     </row>
-    <row r="286" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>21</v>
       </c>
@@ -11532,7 +11535,7 @@
       <c r="K286" s="2"/>
       <c r="L286" s="2"/>
     </row>
-    <row r="287" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>21</v>
       </c>
@@ -11562,7 +11565,7 @@
       <c r="K287" s="2"/>
       <c r="L287" s="2"/>
     </row>
-    <row r="288" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>21</v>
       </c>
@@ -11592,7 +11595,7 @@
       <c r="K288" s="2"/>
       <c r="L288" s="2"/>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>21</v>
       </c>
@@ -11622,7 +11625,7 @@
       <c r="K289" s="2"/>
       <c r="L289" s="2"/>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>21</v>
       </c>
@@ -11652,7 +11655,7 @@
       <c r="K290" s="2"/>
       <c r="L290" s="2"/>
     </row>
-    <row r="291" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>281</v>
       </c>
@@ -11680,7 +11683,7 @@
       <c r="K291" s="2"/>
       <c r="L291" s="2"/>
     </row>
-    <row r="292" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>281</v>
       </c>
@@ -11716,7 +11719,7 @@
       </c>
       <c r="L292" s="2"/>
     </row>
-    <row r="293" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>281</v>
       </c>
@@ -11752,7 +11755,7 @@
       </c>
       <c r="L293" s="2"/>
     </row>
-    <row r="294" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>281</v>
       </c>
@@ -11788,7 +11791,7 @@
       </c>
       <c r="L294" s="2"/>
     </row>
-    <row r="295" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>281</v>
       </c>
@@ -11824,7 +11827,7 @@
       </c>
       <c r="L295" s="2"/>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>281</v>
       </c>
@@ -11854,7 +11857,7 @@
       <c r="K296" s="2"/>
       <c r="L296" s="2"/>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>281</v>
       </c>
@@ -11890,7 +11893,7 @@
       </c>
       <c r="L297" s="2"/>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>281</v>
       </c>
@@ -11926,7 +11929,7 @@
       </c>
       <c r="L298" s="2"/>
     </row>
-    <row r="299" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>281</v>
       </c>
@@ -11954,7 +11957,7 @@
       <c r="K299" s="2"/>
       <c r="L299" s="2"/>
     </row>
-    <row r="300" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>281</v>
       </c>
@@ -11984,7 +11987,7 @@
       <c r="K300" s="2"/>
       <c r="L300" s="2"/>
     </row>
-    <row r="301" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>281</v>
       </c>
@@ -12014,7 +12017,7 @@
       <c r="K301" s="2"/>
       <c r="L301" s="2"/>
     </row>
-    <row r="302" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>281</v>
       </c>
@@ -12046,7 +12049,7 @@
       <c r="K302" s="2"/>
       <c r="L302" s="2"/>
     </row>
-    <row r="303" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>281</v>
       </c>
@@ -12078,7 +12081,7 @@
       <c r="K303" s="2"/>
       <c r="L303" s="2"/>
     </row>
-    <row r="304" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>281</v>
       </c>
@@ -12110,7 +12113,7 @@
       <c r="K304" s="2"/>
       <c r="L304" s="2"/>
     </row>
-    <row r="305" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>281</v>
       </c>
@@ -12146,7 +12149,7 @@
       </c>
       <c r="L305" s="2"/>
     </row>
-    <row r="306" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>281</v>
       </c>
@@ -12178,7 +12181,7 @@
       <c r="K306" s="2"/>
       <c r="L306" s="2"/>
     </row>
-    <row r="307" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>281</v>
       </c>
@@ -12210,7 +12213,7 @@
       <c r="K307" s="2"/>
       <c r="L307" s="2"/>
     </row>
-    <row r="308" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>281</v>
       </c>
@@ -12242,7 +12245,7 @@
       <c r="K308" s="2"/>
       <c r="L308" s="2"/>
     </row>
-    <row r="309" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>281</v>
       </c>
@@ -12278,7 +12281,7 @@
       </c>
       <c r="L309" s="2"/>
     </row>
-    <row r="310" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>281</v>
       </c>
@@ -12338,7 +12341,7 @@
       <c r="K311" s="2"/>
       <c r="L311" s="2"/>
     </row>
-    <row r="312" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>331</v>
       </c>
@@ -12406,7 +12409,7 @@
       <c r="K313" s="2"/>
       <c r="L313" s="2"/>
     </row>
-    <row r="314" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>331</v>
       </c>
@@ -12474,7 +12477,7 @@
       <c r="K315" s="2"/>
       <c r="L315" s="2"/>
     </row>
-    <row r="316" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>331</v>
       </c>
@@ -12510,7 +12513,7 @@
       </c>
       <c r="L316" s="2"/>
     </row>
-    <row r="317" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>331</v>
       </c>
@@ -12542,7 +12545,7 @@
       <c r="K317" s="2"/>
       <c r="L317" s="2"/>
     </row>
-    <row r="318" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>331</v>
       </c>
@@ -12610,7 +12613,7 @@
       <c r="K319" s="2"/>
       <c r="L319" s="2"/>
     </row>
-    <row r="320" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>331</v>
       </c>
@@ -12646,7 +12649,7 @@
       </c>
       <c r="L320" s="2"/>
     </row>
-    <row r="321" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>331</v>
       </c>
@@ -12678,7 +12681,7 @@
       <c r="K321" s="2"/>
       <c r="L321" s="2"/>
     </row>
-    <row r="322" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>331</v>
       </c>
@@ -12746,7 +12749,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="2"/>
     </row>
-    <row r="324" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>331</v>
       </c>
@@ -12782,7 +12785,7 @@
       </c>
       <c r="L324" s="2"/>
     </row>
-    <row r="325" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>331</v>
       </c>
@@ -12814,7 +12817,7 @@
       <c r="K325" s="2"/>
       <c r="L325" s="2"/>
     </row>
-    <row r="326" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>331</v>
       </c>
@@ -12882,7 +12885,7 @@
       <c r="K327" s="2"/>
       <c r="L327" s="2"/>
     </row>
-    <row r="328" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>331</v>
       </c>
@@ -12918,7 +12921,7 @@
       </c>
       <c r="L328" s="2"/>
     </row>
-    <row r="329" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>331</v>
       </c>
@@ -12986,7 +12989,7 @@
       <c r="K330" s="2"/>
       <c r="L330" s="2"/>
     </row>
-    <row r="331" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>44</v>
       </c>
@@ -13018,7 +13021,7 @@
       <c r="K331" s="2"/>
       <c r="L331" s="2"/>
     </row>
-    <row r="332" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>44</v>
       </c>
@@ -13050,7 +13053,7 @@
       <c r="K332" s="2"/>
       <c r="L332" s="2"/>
     </row>
-    <row r="333" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>44</v>
       </c>
@@ -13082,7 +13085,7 @@
       <c r="K333" s="2"/>
       <c r="L333" s="2"/>
     </row>
-    <row r="334" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>44</v>
       </c>
@@ -13114,7 +13117,7 @@
       <c r="K334" s="2"/>
       <c r="L334" s="2"/>
     </row>
-    <row r="335" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>44</v>
       </c>
@@ -13146,7 +13149,7 @@
       <c r="K335" s="2"/>
       <c r="L335" s="2"/>
     </row>
-    <row r="336" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>44</v>
       </c>
@@ -13178,7 +13181,7 @@
       <c r="K336" s="2"/>
       <c r="L336" s="2"/>
     </row>
-    <row r="337" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>44</v>
       </c>
@@ -13210,7 +13213,7 @@
       <c r="K337" s="2"/>
       <c r="L337" s="2"/>
     </row>
-    <row r="338" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>44</v>
       </c>
@@ -13242,7 +13245,7 @@
       <c r="K338" s="2"/>
       <c r="L338" s="2"/>
     </row>
-    <row r="339" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>44</v>
       </c>
@@ -13274,7 +13277,7 @@
       <c r="K339" s="2"/>
       <c r="L339" s="2"/>
     </row>
-    <row r="340" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>44</v>
       </c>
@@ -13306,7 +13309,7 @@
       <c r="K340" s="2"/>
       <c r="L340" s="2"/>
     </row>
-    <row r="341" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>44</v>
       </c>
@@ -13338,7 +13341,7 @@
       <c r="K341" s="2"/>
       <c r="L341" s="2"/>
     </row>
-    <row r="342" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>44</v>
       </c>
@@ -13374,7 +13377,7 @@
       </c>
       <c r="L342" s="2"/>
     </row>
-    <row r="343" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>44</v>
       </c>
@@ -13410,7 +13413,7 @@
       </c>
       <c r="L343" s="2"/>
     </row>
-    <row r="344" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>44</v>
       </c>
@@ -13442,7 +13445,7 @@
       <c r="K344" s="2"/>
       <c r="L344" s="2"/>
     </row>
-    <row r="345" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>44</v>
       </c>
@@ -13478,7 +13481,7 @@
       </c>
       <c r="L345" s="2"/>
     </row>
-    <row r="346" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>44</v>
       </c>
@@ -13514,7 +13517,7 @@
       </c>
       <c r="L346" s="2"/>
     </row>
-    <row r="347" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>44</v>
       </c>
@@ -13546,7 +13549,7 @@
       <c r="K347" s="2"/>
       <c r="L347" s="2"/>
     </row>
-    <row r="348" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>44</v>
       </c>
@@ -13578,7 +13581,7 @@
       <c r="K348" s="2"/>
       <c r="L348" s="2"/>
     </row>
-    <row r="349" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>44</v>
       </c>
@@ -13614,7 +13617,7 @@
       </c>
       <c r="L349" s="2"/>
     </row>
-    <row r="350" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>44</v>
       </c>
@@ -13646,7 +13649,7 @@
       <c r="K350" s="2"/>
       <c r="L350" s="2"/>
     </row>
-    <row r="351" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>44</v>
       </c>
@@ -13678,7 +13681,7 @@
       <c r="K351" s="2"/>
       <c r="L351" s="2"/>
     </row>
-    <row r="352" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>44</v>
       </c>
@@ -13710,7 +13713,7 @@
       <c r="K352" s="2"/>
       <c r="L352" s="2"/>
     </row>
-    <row r="353" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>44</v>
       </c>
@@ -13742,7 +13745,7 @@
       <c r="K353" s="2"/>
       <c r="L353" s="2"/>
     </row>
-    <row r="354" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>44</v>
       </c>
@@ -13778,7 +13781,7 @@
       </c>
       <c r="L354" s="2"/>
     </row>
-    <row r="355" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>44</v>
       </c>
@@ -13810,7 +13813,7 @@
       <c r="K355" s="2"/>
       <c r="L355" s="2"/>
     </row>
-    <row r="356" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>44</v>
       </c>
@@ -13842,7 +13845,7 @@
       <c r="K356" s="2"/>
       <c r="L356" s="2"/>
     </row>
-    <row r="357" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>44</v>
       </c>
@@ -13874,7 +13877,7 @@
       <c r="K357" s="2"/>
       <c r="L357" s="2"/>
     </row>
-    <row r="358" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>44</v>
       </c>
@@ -13906,7 +13909,7 @@
       <c r="K358" s="2"/>
       <c r="L358" s="2"/>
     </row>
-    <row r="359" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>44</v>
       </c>
@@ -13942,7 +13945,7 @@
       </c>
       <c r="L359" s="2"/>
     </row>
-    <row r="360" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>44</v>
       </c>
@@ -13974,7 +13977,7 @@
       <c r="K360" s="2"/>
       <c r="L360" s="2"/>
     </row>
-    <row r="361" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>44</v>
       </c>
@@ -14006,7 +14009,7 @@
       <c r="K361" s="2"/>
       <c r="L361" s="2"/>
     </row>
-    <row r="362" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>44</v>
       </c>
@@ -14038,7 +14041,7 @@
       <c r="K362" s="2"/>
       <c r="L362" s="2"/>
     </row>
-    <row r="363" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>44</v>
       </c>
@@ -14070,7 +14073,7 @@
       <c r="K363" s="2"/>
       <c r="L363" s="2"/>
     </row>
-    <row r="364" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>44</v>
       </c>
@@ -14106,7 +14109,7 @@
       </c>
       <c r="L364" s="2"/>
     </row>
-    <row r="365" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>44</v>
       </c>
@@ -14138,7 +14141,7 @@
       <c r="K365" s="2"/>
       <c r="L365" s="2"/>
     </row>
-    <row r="366" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>44</v>
       </c>
@@ -14170,7 +14173,7 @@
       <c r="K366" s="2"/>
       <c r="L366" s="2"/>
     </row>
-    <row r="367" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>44</v>
       </c>
@@ -14202,7 +14205,7 @@
       <c r="K367" s="2"/>
       <c r="L367" s="2"/>
     </row>
-    <row r="368" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>44</v>
       </c>
@@ -14234,7 +14237,7 @@
       <c r="K368" s="2"/>
       <c r="L368" s="2"/>
     </row>
-    <row r="369" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>44</v>
       </c>
@@ -14270,7 +14273,7 @@
       </c>
       <c r="L369" s="2"/>
     </row>
-    <row r="370" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>44</v>
       </c>
@@ -14306,7 +14309,7 @@
       </c>
       <c r="L370" s="2"/>
     </row>
-    <row r="371" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>378</v>
       </c>
@@ -14342,7 +14345,7 @@
       </c>
       <c r="L371" s="2"/>
     </row>
-    <row r="372" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>46</v>
       </c>
@@ -14378,7 +14381,7 @@
       </c>
       <c r="L372" s="2"/>
     </row>
-    <row r="373" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>46</v>
       </c>
@@ -14414,7 +14417,7 @@
       </c>
       <c r="L373" s="2"/>
     </row>
-    <row r="374" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>46</v>
       </c>
@@ -14450,7 +14453,7 @@
       </c>
       <c r="L374" s="2"/>
     </row>
-    <row r="375" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>46</v>
       </c>
@@ -14486,7 +14489,7 @@
       </c>
       <c r="L375" s="2"/>
     </row>
-    <row r="376" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>46</v>
       </c>
@@ -14522,7 +14525,7 @@
       </c>
       <c r="L376" s="2"/>
     </row>
-    <row r="377" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>46</v>
       </c>
@@ -14558,7 +14561,7 @@
       </c>
       <c r="L377" s="2"/>
     </row>
-    <row r="378" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>46</v>
       </c>
@@ -14594,7 +14597,7 @@
       </c>
       <c r="L378" s="2"/>
     </row>
-    <row r="379" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>46</v>
       </c>
@@ -14626,7 +14629,7 @@
       <c r="K379" s="2"/>
       <c r="L379" s="2"/>
     </row>
-    <row r="380" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>46</v>
       </c>
@@ -14662,7 +14665,7 @@
       </c>
       <c r="L380" s="2"/>
     </row>
-    <row r="381" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>46</v>
       </c>
@@ -14698,7 +14701,7 @@
       </c>
       <c r="L381" s="2"/>
     </row>
-    <row r="382" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>46</v>
       </c>
@@ -14734,7 +14737,7 @@
       </c>
       <c r="L382" s="2"/>
     </row>
-    <row r="383" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>46</v>
       </c>
@@ -14766,7 +14769,7 @@
       <c r="K383" s="2"/>
       <c r="L383" s="2"/>
     </row>
-    <row r="384" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>46</v>
       </c>
@@ -14802,7 +14805,7 @@
       </c>
       <c r="L384" s="2"/>
     </row>
-    <row r="385" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>46</v>
       </c>
@@ -14838,7 +14841,7 @@
       </c>
       <c r="L385" s="2"/>
     </row>
-    <row r="386" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>46</v>
       </c>
@@ -14874,7 +14877,7 @@
       </c>
       <c r="L386" s="2"/>
     </row>
-    <row r="387" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>46</v>
       </c>
@@ -14906,7 +14909,7 @@
       <c r="K387" s="2"/>
       <c r="L387" s="2"/>
     </row>
-    <row r="388" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>46</v>
       </c>
@@ -14942,7 +14945,7 @@
       </c>
       <c r="L388" s="2"/>
     </row>
-    <row r="389" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>46</v>
       </c>
@@ -14978,7 +14981,7 @@
       </c>
       <c r="L389" s="2"/>
     </row>
-    <row r="390" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>46</v>
       </c>
@@ -15014,7 +15017,7 @@
       </c>
       <c r="L390" s="2"/>
     </row>
-    <row r="391" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>46</v>
       </c>
@@ -15046,7 +15049,7 @@
       <c r="K391" s="2"/>
       <c r="L391" s="2"/>
     </row>
-    <row r="392" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>46</v>
       </c>
@@ -15082,7 +15085,7 @@
       </c>
       <c r="L392" s="2"/>
     </row>
-    <row r="393" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>46</v>
       </c>
@@ -15118,7 +15121,7 @@
       </c>
       <c r="L393" s="2"/>
     </row>
-    <row r="394" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>46</v>
       </c>
@@ -15154,7 +15157,7 @@
       </c>
       <c r="L394" s="2"/>
     </row>
-    <row r="395" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>46</v>
       </c>
@@ -15186,7 +15189,7 @@
       <c r="K395" s="2"/>
       <c r="L395" s="2"/>
     </row>
-    <row r="396" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>46</v>
       </c>
@@ -15222,7 +15225,7 @@
       </c>
       <c r="L396" s="2"/>
     </row>
-    <row r="397" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>46</v>
       </c>
@@ -15258,7 +15261,7 @@
       </c>
       <c r="L397" s="2"/>
     </row>
-    <row r="398" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>46</v>
       </c>
@@ -15294,7 +15297,7 @@
       </c>
       <c r="L398" s="2"/>
     </row>
-    <row r="399" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>46</v>
       </c>
@@ -15326,7 +15329,7 @@
       <c r="K399" s="2"/>
       <c r="L399" s="2"/>
     </row>
-    <row r="400" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>46</v>
       </c>
@@ -15362,7 +15365,7 @@
       </c>
       <c r="L400" s="2"/>
     </row>
-    <row r="401" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>46</v>
       </c>
@@ -15398,7 +15401,7 @@
       </c>
       <c r="L401" s="2"/>
     </row>
-    <row r="402" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>46</v>
       </c>
@@ -15434,7 +15437,7 @@
       </c>
       <c r="L402" s="2"/>
     </row>
-    <row r="403" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>46</v>
       </c>
@@ -15466,7 +15469,7 @@
       <c r="K403" s="2"/>
       <c r="L403" s="2"/>
     </row>
-    <row r="404" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>46</v>
       </c>
@@ -15502,7 +15505,7 @@
       </c>
       <c r="L404" s="2"/>
     </row>
-    <row r="405" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>46</v>
       </c>
@@ -15538,7 +15541,7 @@
       </c>
       <c r="L405" s="2"/>
     </row>
-    <row r="406" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>46</v>
       </c>
@@ -15574,7 +15577,7 @@
       </c>
       <c r="L406" s="2"/>
     </row>
-    <row r="407" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>46</v>
       </c>
@@ -15606,7 +15609,7 @@
       <c r="K407" s="2"/>
       <c r="L407" s="2"/>
     </row>
-    <row r="408" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>46</v>
       </c>
@@ -15642,7 +15645,7 @@
       </c>
       <c r="L408" s="2"/>
     </row>
-    <row r="409" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>46</v>
       </c>
@@ -15678,7 +15681,7 @@
       </c>
       <c r="L409" s="2"/>
     </row>
-    <row r="410" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>46</v>
       </c>
@@ -15714,7 +15717,7 @@
       </c>
       <c r="L410" s="2"/>
     </row>
-    <row r="411" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>46</v>
       </c>
@@ -15746,7 +15749,7 @@
       <c r="K411" s="2"/>
       <c r="L411" s="2"/>
     </row>
-    <row r="412" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>46</v>
       </c>
@@ -15782,7 +15785,7 @@
       </c>
       <c r="L412" s="2"/>
     </row>
-    <row r="413" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>46</v>
       </c>
@@ -15818,7 +15821,7 @@
       </c>
       <c r="L413" s="2"/>
     </row>
-    <row r="414" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>46</v>
       </c>
@@ -15854,7 +15857,7 @@
       </c>
       <c r="L414" s="2"/>
     </row>
-    <row r="415" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>46</v>
       </c>
@@ -15886,7 +15889,7 @@
       <c r="K415" s="2"/>
       <c r="L415" s="2"/>
     </row>
-    <row r="416" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>46</v>
       </c>
@@ -15922,7 +15925,7 @@
       </c>
       <c r="L416" s="2"/>
     </row>
-    <row r="417" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>46</v>
       </c>
@@ -15954,7 +15957,7 @@
       <c r="K417" s="2"/>
       <c r="L417" s="2"/>
     </row>
-    <row r="418" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>46</v>
       </c>
@@ -15986,7 +15989,7 @@
       <c r="K418" s="2"/>
       <c r="L418" s="2"/>
     </row>
-    <row r="419" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>46</v>
       </c>
@@ -16018,7 +16021,7 @@
       <c r="K419" s="2"/>
       <c r="L419" s="2"/>
     </row>
-    <row r="420" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>46</v>
       </c>
@@ -16050,7 +16053,7 @@
       <c r="K420" s="2"/>
       <c r="L420" s="2"/>
     </row>
-    <row r="421" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>46</v>
       </c>
@@ -16086,7 +16089,7 @@
       </c>
       <c r="L421" s="2"/>
     </row>
-    <row r="422" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>46</v>
       </c>
@@ -16118,7 +16121,7 @@
       <c r="K422" s="2"/>
       <c r="L422" s="2"/>
     </row>
-    <row r="423" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>46</v>
       </c>
@@ -16154,7 +16157,7 @@
       </c>
       <c r="L423" s="2"/>
     </row>
-    <row r="424" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>46</v>
       </c>
@@ -16190,7 +16193,7 @@
       </c>
       <c r="L424" s="2"/>
     </row>
-    <row r="425" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>46</v>
       </c>
@@ -16222,7 +16225,7 @@
       <c r="K425" s="2"/>
       <c r="L425" s="2"/>
     </row>
-    <row r="426" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>46</v>
       </c>
@@ -16254,7 +16257,7 @@
       <c r="K426" s="2"/>
       <c r="L426" s="2"/>
     </row>
-    <row r="427" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>46</v>
       </c>
@@ -16286,7 +16289,7 @@
       <c r="K427" s="2"/>
       <c r="L427" s="2"/>
     </row>
-    <row r="428" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>46</v>
       </c>
@@ -16318,7 +16321,7 @@
       <c r="K428" s="2"/>
       <c r="L428" s="2"/>
     </row>
-    <row r="429" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>46</v>
       </c>
@@ -16354,7 +16357,7 @@
       </c>
       <c r="L429" s="2"/>
     </row>
-    <row r="430" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>46</v>
       </c>
@@ -16390,7 +16393,7 @@
       </c>
       <c r="L430" s="2"/>
     </row>
-    <row r="431" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>46</v>
       </c>
@@ -16426,7 +16429,7 @@
       </c>
       <c r="L431" s="2"/>
     </row>
-    <row r="432" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>46</v>
       </c>
@@ -16458,7 +16461,7 @@
       <c r="K432" s="2"/>
       <c r="L432" s="2"/>
     </row>
-    <row r="433" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>46</v>
       </c>
@@ -16490,7 +16493,7 @@
       <c r="K433" s="2"/>
       <c r="L433" s="2"/>
     </row>
-    <row r="434" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>46</v>
       </c>
@@ -16522,7 +16525,7 @@
       <c r="K434" s="2"/>
       <c r="L434" s="2"/>
     </row>
-    <row r="435" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>46</v>
       </c>
@@ -16554,7 +16557,7 @@
       <c r="K435" s="2"/>
       <c r="L435" s="2"/>
     </row>
-    <row r="436" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>46</v>
       </c>
@@ -16590,7 +16593,7 @@
       </c>
       <c r="L436" s="2"/>
     </row>
-    <row r="437" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>46</v>
       </c>
@@ -16626,7 +16629,7 @@
       </c>
       <c r="L437" s="2"/>
     </row>
-    <row r="438" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>46</v>
       </c>
@@ -16662,7 +16665,7 @@
       </c>
       <c r="L438" s="2"/>
     </row>
-    <row r="439" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>46</v>
       </c>
@@ -16698,7 +16701,7 @@
       </c>
       <c r="L439" s="2"/>
     </row>
-    <row r="440" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>46</v>
       </c>
@@ -16734,7 +16737,7 @@
       </c>
       <c r="L440" s="2"/>
     </row>
-    <row r="441" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>46</v>
       </c>
@@ -16770,7 +16773,7 @@
       </c>
       <c r="L441" s="2"/>
     </row>
-    <row r="442" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>46</v>
       </c>
@@ -16802,7 +16805,7 @@
       <c r="K442" s="2"/>
       <c r="L442" s="2"/>
     </row>
-    <row r="443" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>46</v>
       </c>
@@ -16834,7 +16837,7 @@
       <c r="K443" s="2"/>
       <c r="L443" s="2"/>
     </row>
-    <row r="444" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>46</v>
       </c>
@@ -16866,7 +16869,7 @@
       <c r="K444" s="2"/>
       <c r="L444" s="2"/>
     </row>
-    <row r="445" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>46</v>
       </c>
@@ -16898,7 +16901,7 @@
       <c r="K445" s="2"/>
       <c r="L445" s="2"/>
     </row>
-    <row r="446" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>46</v>
       </c>
@@ -16934,7 +16937,7 @@
       </c>
       <c r="L446" s="2"/>
     </row>
-    <row r="447" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>46</v>
       </c>
@@ -16966,7 +16969,7 @@
       <c r="K447" s="2"/>
       <c r="L447" s="2"/>
     </row>
-    <row r="448" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>46</v>
       </c>
@@ -17002,7 +17005,7 @@
       </c>
       <c r="L448" s="2"/>
     </row>
-    <row r="449" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>46</v>
       </c>
@@ -17038,7 +17041,7 @@
       </c>
       <c r="L449" s="2"/>
     </row>
-    <row r="450" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>46</v>
       </c>
@@ -17070,7 +17073,7 @@
       <c r="K450" s="2"/>
       <c r="L450" s="2"/>
     </row>
-    <row r="451" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>46</v>
       </c>
@@ -17102,7 +17105,7 @@
       <c r="K451" s="2"/>
       <c r="L451" s="2"/>
     </row>
-    <row r="452" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>46</v>
       </c>
@@ -17134,7 +17137,7 @@
       <c r="K452" s="2"/>
       <c r="L452" s="2"/>
     </row>
-    <row r="453" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>46</v>
       </c>
@@ -17166,7 +17169,7 @@
       <c r="K453" s="2"/>
       <c r="L453" s="2"/>
     </row>
-    <row r="454" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>46</v>
       </c>
@@ -17202,7 +17205,7 @@
       </c>
       <c r="L454" s="2"/>
     </row>
-    <row r="455" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>46</v>
       </c>
@@ -17238,7 +17241,7 @@
       </c>
       <c r="L455" s="2"/>
     </row>
-    <row r="456" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>46</v>
       </c>
@@ -17274,7 +17277,7 @@
       </c>
       <c r="L456" s="2"/>
     </row>
-    <row r="457" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>46</v>
       </c>
@@ -17306,7 +17309,7 @@
       <c r="K457" s="2"/>
       <c r="L457" s="2"/>
     </row>
-    <row r="458" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>46</v>
       </c>
@@ -17338,7 +17341,7 @@
       <c r="K458" s="2"/>
       <c r="L458" s="2"/>
     </row>
-    <row r="459" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>46</v>
       </c>
@@ -17370,7 +17373,7 @@
       <c r="K459" s="2"/>
       <c r="L459" s="2"/>
     </row>
-    <row r="460" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>46</v>
       </c>
@@ -17402,7 +17405,7 @@
       <c r="K460" s="2"/>
       <c r="L460" s="2"/>
     </row>
-    <row r="461" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>46</v>
       </c>
@@ -17438,7 +17441,7 @@
       </c>
       <c r="L461" s="2"/>
     </row>
-    <row r="462" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>46</v>
       </c>
@@ -17474,7 +17477,7 @@
       </c>
       <c r="L462" s="2"/>
     </row>
-    <row r="463" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>46</v>
       </c>
@@ -17510,7 +17513,7 @@
       </c>
       <c r="L463" s="2"/>
     </row>
-    <row r="464" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>46</v>
       </c>
@@ -17546,7 +17549,7 @@
       </c>
       <c r="L464" s="2"/>
     </row>
-    <row r="465" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>46</v>
       </c>
@@ -17582,7 +17585,7 @@
       </c>
       <c r="L465" s="2"/>
     </row>
-    <row r="466" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>46</v>
       </c>
@@ -17618,7 +17621,7 @@
       </c>
       <c r="L466" s="2"/>
     </row>
-    <row r="467" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>46</v>
       </c>
@@ -17650,7 +17653,7 @@
       <c r="K467" s="2"/>
       <c r="L467" s="2"/>
     </row>
-    <row r="468" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>46</v>
       </c>
@@ -17682,7 +17685,7 @@
       <c r="K468" s="2"/>
       <c r="L468" s="2"/>
     </row>
-    <row r="469" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>46</v>
       </c>
@@ -17714,7 +17717,7 @@
       <c r="K469" s="2"/>
       <c r="L469" s="2"/>
     </row>
-    <row r="470" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>46</v>
       </c>
@@ -17746,7 +17749,7 @@
       <c r="K470" s="2"/>
       <c r="L470" s="2"/>
     </row>
-    <row r="471" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>46</v>
       </c>
@@ -17782,7 +17785,7 @@
       </c>
       <c r="L471" s="2"/>
     </row>
-    <row r="472" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>46</v>
       </c>
@@ -17814,7 +17817,7 @@
       <c r="K472" s="2"/>
       <c r="L472" s="2"/>
     </row>
-    <row r="473" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>46</v>
       </c>
@@ -17850,7 +17853,7 @@
       </c>
       <c r="L473" s="2"/>
     </row>
-    <row r="474" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>46</v>
       </c>
@@ -17886,7 +17889,7 @@
       </c>
       <c r="L474" s="2"/>
     </row>
-    <row r="475" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>46</v>
       </c>
@@ -17918,7 +17921,7 @@
       <c r="K475" s="2"/>
       <c r="L475" s="2"/>
     </row>
-    <row r="476" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
         <v>46</v>
       </c>
@@ -17950,7 +17953,7 @@
       <c r="K476" s="2"/>
       <c r="L476" s="2"/>
     </row>
-    <row r="477" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
         <v>46</v>
       </c>
@@ -17982,7 +17985,7 @@
       <c r="K477" s="2"/>
       <c r="L477" s="2"/>
     </row>
-    <row r="478" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
         <v>46</v>
       </c>
@@ -18014,7 +18017,7 @@
       <c r="K478" s="2"/>
       <c r="L478" s="2"/>
     </row>
-    <row r="479" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
         <v>46</v>
       </c>
@@ -18050,7 +18053,7 @@
       </c>
       <c r="L479" s="2"/>
     </row>
-    <row r="480" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
         <v>46</v>
       </c>
@@ -18086,7 +18089,7 @@
       </c>
       <c r="L480" s="2"/>
     </row>
-    <row r="481" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>46</v>
       </c>
@@ -18122,7 +18125,7 @@
       </c>
       <c r="L481" s="2"/>
     </row>
-    <row r="482" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
         <v>46</v>
       </c>
@@ -18154,7 +18157,7 @@
       <c r="K482" s="2"/>
       <c r="L482" s="2"/>
     </row>
-    <row r="483" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
         <v>46</v>
       </c>
@@ -18186,7 +18189,7 @@
       <c r="K483" s="2"/>
       <c r="L483" s="2"/>
     </row>
-    <row r="484" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>46</v>
       </c>
@@ -18218,7 +18221,7 @@
       <c r="K484" s="2"/>
       <c r="L484" s="2"/>
     </row>
-    <row r="485" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
         <v>46</v>
       </c>
@@ -18250,7 +18253,7 @@
       <c r="K485" s="2"/>
       <c r="L485" s="2"/>
     </row>
-    <row r="486" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>46</v>
       </c>
@@ -18286,7 +18289,7 @@
       </c>
       <c r="L486" s="2"/>
     </row>
-    <row r="487" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>46</v>
       </c>
@@ -18322,7 +18325,7 @@
       </c>
       <c r="L487" s="2"/>
     </row>
-    <row r="488" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
         <v>46</v>
       </c>
@@ -18358,7 +18361,7 @@
       </c>
       <c r="L488" s="2"/>
     </row>
-    <row r="489" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
         <v>46</v>
       </c>
@@ -18394,7 +18397,7 @@
       </c>
       <c r="L489" s="2"/>
     </row>
-    <row r="490" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
         <v>46</v>
       </c>
@@ -18430,7 +18433,7 @@
       </c>
       <c r="L490" s="2"/>
     </row>
-    <row r="491" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
         <v>46</v>
       </c>
@@ -18466,7 +18469,7 @@
       </c>
       <c r="L491" s="2"/>
     </row>
-    <row r="492" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
         <v>46</v>
       </c>
@@ -18498,7 +18501,7 @@
       <c r="K492" s="2"/>
       <c r="L492" s="2"/>
     </row>
-    <row r="493" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
         <v>46</v>
       </c>
@@ -18530,7 +18533,7 @@
       <c r="K493" s="2"/>
       <c r="L493" s="2"/>
     </row>
-    <row r="494" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>46</v>
       </c>
@@ -18562,7 +18565,7 @@
       <c r="K494" s="2"/>
       <c r="L494" s="2"/>
     </row>
-    <row r="495" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>46</v>
       </c>
@@ -18594,7 +18597,7 @@
       <c r="K495" s="2"/>
       <c r="L495" s="2"/>
     </row>
-    <row r="496" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>46</v>
       </c>
@@ -18630,7 +18633,7 @@
       </c>
       <c r="L496" s="2"/>
     </row>
-    <row r="497" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>46</v>
       </c>
@@ -18662,7 +18665,7 @@
       <c r="K497" s="2"/>
       <c r="L497" s="2"/>
     </row>
-    <row r="498" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>46</v>
       </c>
@@ -18698,7 +18701,7 @@
       </c>
       <c r="L498" s="2"/>
     </row>
-    <row r="499" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>46</v>
       </c>
@@ -18734,7 +18737,7 @@
       </c>
       <c r="L499" s="2"/>
     </row>
-    <row r="500" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>46</v>
       </c>
@@ -18766,7 +18769,7 @@
       <c r="K500" s="2"/>
       <c r="L500" s="2"/>
     </row>
-    <row r="501" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>46</v>
       </c>
@@ -18798,7 +18801,7 @@
       <c r="K501" s="2"/>
       <c r="L501" s="2"/>
     </row>
-    <row r="502" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>46</v>
       </c>
@@ -18830,7 +18833,7 @@
       <c r="K502" s="2"/>
       <c r="L502" s="2"/>
     </row>
-    <row r="503" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>46</v>
       </c>
@@ -18862,7 +18865,7 @@
       <c r="K503" s="2"/>
       <c r="L503" s="2"/>
     </row>
-    <row r="504" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
         <v>46</v>
       </c>
@@ -18898,7 +18901,7 @@
       </c>
       <c r="L504" s="2"/>
     </row>
-    <row r="505" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>46</v>
       </c>
@@ -18934,7 +18937,7 @@
       </c>
       <c r="L505" s="2"/>
     </row>
-    <row r="506" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
         <v>46</v>
       </c>
@@ -18970,7 +18973,7 @@
       </c>
       <c r="L506" s="2"/>
     </row>
-    <row r="507" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
         <v>46</v>
       </c>
@@ -19002,7 +19005,7 @@
       <c r="K507" s="2"/>
       <c r="L507" s="2"/>
     </row>
-    <row r="508" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>46</v>
       </c>
@@ -19034,7 +19037,7 @@
       <c r="K508" s="2"/>
       <c r="L508" s="2"/>
     </row>
-    <row r="509" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>46</v>
       </c>
@@ -19066,7 +19069,7 @@
       <c r="K509" s="2"/>
       <c r="L509" s="2"/>
     </row>
-    <row r="510" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>46</v>
       </c>
@@ -19098,7 +19101,7 @@
       <c r="K510" s="2"/>
       <c r="L510" s="2"/>
     </row>
-    <row r="511" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>46</v>
       </c>
@@ -19134,7 +19137,7 @@
       </c>
       <c r="L511" s="2"/>
     </row>
-    <row r="512" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>46</v>
       </c>
@@ -19170,7 +19173,7 @@
       </c>
       <c r="L512" s="2"/>
     </row>
-    <row r="513" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>46</v>
       </c>
@@ -19206,7 +19209,7 @@
       </c>
       <c r="L513" s="2"/>
     </row>
-    <row r="514" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
         <v>46</v>
       </c>
@@ -19242,7 +19245,7 @@
       </c>
       <c r="L514" s="2"/>
     </row>
-    <row r="515" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>46</v>
       </c>
@@ -19278,7 +19281,7 @@
       </c>
       <c r="L515" s="2"/>
     </row>
-    <row r="516" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>46</v>
       </c>
@@ -19314,7 +19317,7 @@
       </c>
       <c r="L516" s="2"/>
     </row>
-    <row r="517" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
         <v>46</v>
       </c>
@@ -19346,7 +19349,7 @@
       <c r="K517" s="2"/>
       <c r="L517" s="2"/>
     </row>
-    <row r="518" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
         <v>46</v>
       </c>
@@ -19378,7 +19381,7 @@
       <c r="K518" s="2"/>
       <c r="L518" s="2"/>
     </row>
-    <row r="519" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
         <v>46</v>
       </c>
@@ -19410,7 +19413,7 @@
       <c r="K519" s="2"/>
       <c r="L519" s="2"/>
     </row>
-    <row r="520" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
         <v>46</v>
       </c>
@@ -19442,7 +19445,7 @@
       <c r="K520" s="2"/>
       <c r="L520" s="2"/>
     </row>
-    <row r="521" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
         <v>46</v>
       </c>
@@ -19478,7 +19481,7 @@
       </c>
       <c r="L521" s="2"/>
     </row>
-    <row r="522" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>46</v>
       </c>
@@ -19510,7 +19513,7 @@
       <c r="K522" s="2"/>
       <c r="L522" s="2"/>
     </row>
-    <row r="523" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>46</v>
       </c>
@@ -19546,7 +19549,7 @@
       </c>
       <c r="L523" s="2"/>
     </row>
-    <row r="524" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
         <v>46</v>
       </c>
@@ -19582,7 +19585,7 @@
       </c>
       <c r="L524" s="2"/>
     </row>
-    <row r="525" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
         <v>46</v>
       </c>
@@ -19614,7 +19617,7 @@
       <c r="K525" s="2"/>
       <c r="L525" s="2"/>
     </row>
-    <row r="526" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
         <v>46</v>
       </c>
@@ -19646,7 +19649,7 @@
       <c r="K526" s="2"/>
       <c r="L526" s="2"/>
     </row>
-    <row r="527" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
         <v>46</v>
       </c>
@@ -19678,7 +19681,7 @@
       <c r="K527" s="2"/>
       <c r="L527" s="2"/>
     </row>
-    <row r="528" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
         <v>46</v>
       </c>
@@ -19710,7 +19713,7 @@
       <c r="K528" s="2"/>
       <c r="L528" s="2"/>
     </row>
-    <row r="529" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>46</v>
       </c>
@@ -19746,7 +19749,7 @@
       </c>
       <c r="L529" s="2"/>
     </row>
-    <row r="530" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>46</v>
       </c>
@@ -19782,7 +19785,7 @@
       </c>
       <c r="L530" s="2"/>
     </row>
-    <row r="531" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
         <v>46</v>
       </c>
@@ -19818,7 +19821,7 @@
       </c>
       <c r="L531" s="2"/>
     </row>
-    <row r="532" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>46</v>
       </c>
@@ -19850,7 +19853,7 @@
       <c r="K532" s="2"/>
       <c r="L532" s="2"/>
     </row>
-    <row r="533" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
         <v>46</v>
       </c>
@@ -19882,7 +19885,7 @@
       <c r="K533" s="2"/>
       <c r="L533" s="2"/>
     </row>
-    <row r="534" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
         <v>46</v>
       </c>
@@ -19914,7 +19917,7 @@
       <c r="K534" s="2"/>
       <c r="L534" s="2"/>
     </row>
-    <row r="535" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>46</v>
       </c>
@@ -19946,7 +19949,7 @@
       <c r="K535" s="2"/>
       <c r="L535" s="2"/>
     </row>
-    <row r="536" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
         <v>46</v>
       </c>
@@ -19982,7 +19985,7 @@
       </c>
       <c r="L536" s="2"/>
     </row>
-    <row r="537" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>46</v>
       </c>
@@ -20018,7 +20021,7 @@
       </c>
       <c r="L537" s="2"/>
     </row>
-    <row r="538" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>46</v>
       </c>
@@ -20054,7 +20057,7 @@
       </c>
       <c r="L538" s="2"/>
     </row>
-    <row r="539" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>46</v>
       </c>
@@ -20090,7 +20093,7 @@
       </c>
       <c r="L539" s="2"/>
     </row>
-    <row r="540" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>46</v>
       </c>
@@ -20126,7 +20129,7 @@
       </c>
       <c r="L540" s="2"/>
     </row>
-    <row r="541" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>46</v>
       </c>
@@ -20162,7 +20165,7 @@
       </c>
       <c r="L541" s="2"/>
     </row>
-    <row r="542" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>46</v>
       </c>
@@ -20194,7 +20197,7 @@
       <c r="K542" s="2"/>
       <c r="L542" s="2"/>
     </row>
-    <row r="543" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>46</v>
       </c>
@@ -20226,7 +20229,7 @@
       <c r="K543" s="2"/>
       <c r="L543" s="2"/>
     </row>
-    <row r="544" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>46</v>
       </c>
@@ -20258,7 +20261,7 @@
       <c r="K544" s="2"/>
       <c r="L544" s="2"/>
     </row>
-    <row r="545" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
         <v>46</v>
       </c>
@@ -20290,7 +20293,7 @@
       <c r="K545" s="2"/>
       <c r="L545" s="2"/>
     </row>
-    <row r="546" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
         <v>46</v>
       </c>
@@ -20326,7 +20329,7 @@
       </c>
       <c r="L546" s="2"/>
     </row>
-    <row r="547" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>46</v>
       </c>
@@ -20358,7 +20361,7 @@
       <c r="K547" s="2"/>
       <c r="L547" s="2"/>
     </row>
-    <row r="548" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
         <v>46</v>
       </c>
@@ -20394,7 +20397,7 @@
       </c>
       <c r="L548" s="2"/>
     </row>
-    <row r="549" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
         <v>46</v>
       </c>
@@ -20430,7 +20433,7 @@
       </c>
       <c r="L549" s="2"/>
     </row>
-    <row r="550" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>46</v>
       </c>
@@ -20462,7 +20465,7 @@
       <c r="K550" s="2"/>
       <c r="L550" s="2"/>
     </row>
-    <row r="551" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
         <v>46</v>
       </c>
@@ -20494,7 +20497,7 @@
       <c r="K551" s="2"/>
       <c r="L551" s="2"/>
     </row>
-    <row r="552" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>46</v>
       </c>
@@ -20526,7 +20529,7 @@
       <c r="K552" s="2"/>
       <c r="L552" s="2"/>
     </row>
-    <row r="553" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
         <v>46</v>
       </c>
@@ -20558,7 +20561,7 @@
       <c r="K553" s="2"/>
       <c r="L553" s="2"/>
     </row>
-    <row r="554" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>46</v>
       </c>
@@ -20594,7 +20597,7 @@
       </c>
       <c r="L554" s="2"/>
     </row>
-    <row r="555" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>46</v>
       </c>
@@ -20630,7 +20633,7 @@
       </c>
       <c r="L555" s="2"/>
     </row>
-    <row r="556" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>46</v>
       </c>
@@ -20666,7 +20669,7 @@
       </c>
       <c r="L556" s="2"/>
     </row>
-    <row r="557" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>46</v>
       </c>
@@ -20698,7 +20701,7 @@
       <c r="K557" s="2"/>
       <c r="L557" s="2"/>
     </row>
-    <row r="558" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
         <v>46</v>
       </c>
@@ -20730,7 +20733,7 @@
       <c r="K558" s="2"/>
       <c r="L558" s="2"/>
     </row>
-    <row r="559" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
         <v>46</v>
       </c>
@@ -20762,7 +20765,7 @@
       <c r="K559" s="2"/>
       <c r="L559" s="2"/>
     </row>
-    <row r="560" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
         <v>46</v>
       </c>
@@ -20794,7 +20797,7 @@
       <c r="K560" s="2"/>
       <c r="L560" s="2"/>
     </row>
-    <row r="561" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>46</v>
       </c>
@@ -20830,7 +20833,7 @@
       </c>
       <c r="L561" s="2"/>
     </row>
-    <row r="562" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>46</v>
       </c>
@@ -20866,7 +20869,7 @@
       </c>
       <c r="L562" s="2"/>
     </row>
-    <row r="563" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>46</v>
       </c>
@@ -20902,7 +20905,7 @@
       </c>
       <c r="L563" s="2"/>
     </row>
-    <row r="564" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
         <v>46</v>
       </c>
@@ -20938,7 +20941,7 @@
       </c>
       <c r="L564" s="2"/>
     </row>
-    <row r="565" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
         <v>46</v>
       </c>
@@ -20974,7 +20977,7 @@
       </c>
       <c r="L565" s="2"/>
     </row>
-    <row r="566" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
         <v>46</v>
       </c>
@@ -21010,7 +21013,7 @@
       </c>
       <c r="L566" s="2"/>
     </row>
-    <row r="567" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
         <v>46</v>
       </c>
@@ -21042,7 +21045,7 @@
       <c r="K567" s="2"/>
       <c r="L567" s="2"/>
     </row>
-    <row r="568" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
         <v>46</v>
       </c>
@@ -21074,7 +21077,7 @@
       <c r="K568" s="2"/>
       <c r="L568" s="2"/>
     </row>
-    <row r="569" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
         <v>46</v>
       </c>
@@ -21106,7 +21109,7 @@
       <c r="K569" s="2"/>
       <c r="L569" s="2"/>
     </row>
-    <row r="570" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
         <v>46</v>
       </c>
@@ -21138,7 +21141,7 @@
       <c r="K570" s="2"/>
       <c r="L570" s="2"/>
     </row>
-    <row r="571" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
         <v>46</v>
       </c>
@@ -21174,7 +21177,7 @@
       </c>
       <c r="L571" s="2"/>
     </row>
-    <row r="572" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
         <v>46</v>
       </c>
@@ -21206,7 +21209,7 @@
       <c r="K572" s="2"/>
       <c r="L572" s="2"/>
     </row>
-    <row r="573" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
         <v>46</v>
       </c>
@@ -21242,7 +21245,7 @@
       </c>
       <c r="L573" s="2"/>
     </row>
-    <row r="574" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
         <v>46</v>
       </c>
@@ -21278,7 +21281,7 @@
       </c>
       <c r="L574" s="2"/>
     </row>
-    <row r="575" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
         <v>46</v>
       </c>
@@ -21310,7 +21313,7 @@
       <c r="K575" s="2"/>
       <c r="L575" s="2"/>
     </row>
-    <row r="576" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
         <v>46</v>
       </c>
@@ -21342,7 +21345,7 @@
       <c r="K576" s="2"/>
       <c r="L576" s="2"/>
     </row>
-    <row r="577" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
         <v>46</v>
       </c>
@@ -21374,7 +21377,7 @@
       <c r="K577" s="2"/>
       <c r="L577" s="2"/>
     </row>
-    <row r="578" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
         <v>46</v>
       </c>
@@ -21406,7 +21409,7 @@
       <c r="K578" s="2"/>
       <c r="L578" s="2"/>
     </row>
-    <row r="579" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
         <v>46</v>
       </c>
@@ -21442,7 +21445,7 @@
       </c>
       <c r="L579" s="2"/>
     </row>
-    <row r="580" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
         <v>46</v>
       </c>
@@ -21478,7 +21481,7 @@
       </c>
       <c r="L580" s="2"/>
     </row>
-    <row r="581" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
         <v>46</v>
       </c>
@@ -21514,7 +21517,7 @@
       </c>
       <c r="L581" s="2"/>
     </row>
-    <row r="582" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
         <v>46</v>
       </c>
@@ -21546,7 +21549,7 @@
       <c r="K582" s="2"/>
       <c r="L582" s="2"/>
     </row>
-    <row r="583" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
         <v>46</v>
       </c>
@@ -21578,7 +21581,7 @@
       <c r="K583" s="2"/>
       <c r="L583" s="2"/>
     </row>
-    <row r="584" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
         <v>46</v>
       </c>
@@ -21610,7 +21613,7 @@
       <c r="K584" s="2"/>
       <c r="L584" s="2"/>
     </row>
-    <row r="585" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
         <v>46</v>
       </c>
@@ -21642,7 +21645,7 @@
       <c r="K585" s="2"/>
       <c r="L585" s="2"/>
     </row>
-    <row r="586" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
         <v>46</v>
       </c>
@@ -21678,7 +21681,7 @@
       </c>
       <c r="L586" s="2"/>
     </row>
-    <row r="587" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
         <v>46</v>
       </c>
@@ -21714,7 +21717,7 @@
       </c>
       <c r="L587" s="2"/>
     </row>
-    <row r="588" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
         <v>46</v>
       </c>
@@ -21750,7 +21753,7 @@
       </c>
       <c r="L588" s="2"/>
     </row>
-    <row r="589" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
         <v>46</v>
       </c>
@@ -21786,7 +21789,7 @@
       </c>
       <c r="L589" s="2"/>
     </row>
-    <row r="590" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
         <v>46</v>
       </c>
@@ -21822,7 +21825,7 @@
       </c>
       <c r="L590" s="2"/>
     </row>
-    <row r="591" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
         <v>46</v>
       </c>
@@ -21858,7 +21861,7 @@
       </c>
       <c r="L591" s="2"/>
     </row>
-    <row r="592" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
         <v>46</v>
       </c>
@@ -21894,7 +21897,7 @@
       </c>
       <c r="L592" s="2"/>
     </row>
-    <row r="593" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
         <v>46</v>
       </c>
@@ -21930,7 +21933,7 @@
       </c>
       <c r="L593" s="2"/>
     </row>
-    <row r="594" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
         <v>46</v>
       </c>
@@ -21966,7 +21969,7 @@
       </c>
       <c r="L594" s="2"/>
     </row>
-    <row r="595" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
         <v>46</v>
       </c>
@@ -22002,7 +22005,7 @@
       </c>
       <c r="L595" s="2"/>
     </row>
-    <row r="596" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
         <v>46</v>
       </c>
@@ -22038,7 +22041,7 @@
       </c>
       <c r="L596" s="2"/>
     </row>
-    <row r="597" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
         <v>46</v>
       </c>
@@ -22068,7 +22071,7 @@
       <c r="K597" s="2"/>
       <c r="L597" s="2"/>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
         <v>46</v>
       </c>
@@ -22098,7 +22101,7 @@
       <c r="K598" s="2"/>
       <c r="L598" s="2"/>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
         <v>46</v>
       </c>
@@ -22128,7 +22131,7 @@
       <c r="K599" s="2"/>
       <c r="L599" s="2"/>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
         <v>46</v>
       </c>
@@ -22158,7 +22161,7 @@
       <c r="K600" s="2"/>
       <c r="L600" s="2"/>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
         <v>46</v>
       </c>
@@ -22188,7 +22191,7 @@
       <c r="K601" s="2"/>
       <c r="L601" s="2"/>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
         <v>46</v>
       </c>
@@ -22218,7 +22221,7 @@
       <c r="K602" s="2"/>
       <c r="L602" s="2"/>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
         <v>46</v>
       </c>
@@ -22248,7 +22251,7 @@
       <c r="K603" s="2"/>
       <c r="L603" s="2"/>
     </row>
-    <row r="604" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
         <v>46</v>
       </c>
@@ -22280,7 +22283,7 @@
       <c r="K604" s="2"/>
       <c r="L604" s="2"/>
     </row>
-    <row r="605" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
         <v>46</v>
       </c>
@@ -22312,7 +22315,7 @@
       <c r="K605" s="2"/>
       <c r="L605" s="2"/>
     </row>
-    <row r="606" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
         <v>46</v>
       </c>
@@ -22348,7 +22351,7 @@
       </c>
       <c r="L606" s="2"/>
     </row>
-    <row r="607" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
         <v>46</v>
       </c>
@@ -22380,7 +22383,7 @@
       <c r="K607" s="2"/>
       <c r="L607" s="2"/>
     </row>
-    <row r="608" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
         <v>46</v>
       </c>
@@ -22412,7 +22415,7 @@
       <c r="K608" s="2"/>
       <c r="L608" s="2"/>
     </row>
-    <row r="609" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
         <v>46</v>
       </c>
@@ -22448,7 +22451,7 @@
       </c>
       <c r="L609" s="2"/>
     </row>
-    <row r="610" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
         <v>46</v>
       </c>
@@ -22480,7 +22483,7 @@
       <c r="K610" s="2"/>
       <c r="L610" s="2"/>
     </row>
-    <row r="611" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
         <v>46</v>
       </c>
@@ -22516,7 +22519,7 @@
       </c>
       <c r="L611" s="2"/>
     </row>
-    <row r="612" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
         <v>46</v>
       </c>
@@ -22552,7 +22555,7 @@
       </c>
       <c r="L612" s="2"/>
     </row>
-    <row r="613" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
         <v>46</v>
       </c>
@@ -22588,7 +22591,7 @@
       </c>
       <c r="L613" s="2"/>
     </row>
-    <row r="614" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
         <v>46</v>
       </c>
@@ -22620,7 +22623,7 @@
       <c r="K614" s="2"/>
       <c r="L614" s="2"/>
     </row>
-    <row r="615" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
         <v>46</v>
       </c>
@@ -22656,7 +22659,7 @@
       </c>
       <c r="L615" s="2"/>
     </row>
-    <row r="616" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
         <v>46</v>
       </c>
@@ -22692,7 +22695,7 @@
       </c>
       <c r="L616" s="2"/>
     </row>
-    <row r="617" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
         <v>46</v>
       </c>
@@ -22728,7 +22731,7 @@
       </c>
       <c r="L617" s="2"/>
     </row>
-    <row r="618" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
         <v>46</v>
       </c>
@@ -22760,7 +22763,7 @@
       <c r="K618" s="2"/>
       <c r="L618" s="2"/>
     </row>
-    <row r="619" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
         <v>46</v>
       </c>
@@ -22796,7 +22799,7 @@
       </c>
       <c r="L619" s="2"/>
     </row>
-    <row r="620" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
         <v>46</v>
       </c>
@@ -22832,7 +22835,7 @@
       </c>
       <c r="L620" s="2"/>
     </row>
-    <row r="621" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2" t="s">
         <v>46</v>
       </c>
@@ -22868,7 +22871,7 @@
       </c>
       <c r="L621" s="2"/>
     </row>
-    <row r="622" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2" t="s">
         <v>154</v>
       </c>
@@ -22964,7 +22967,7 @@
       <c r="K624" s="2"/>
       <c r="L624" s="2"/>
     </row>
-    <row r="625" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
         <v>154</v>
       </c>
@@ -23060,7 +23063,7 @@
       <c r="K627" s="2"/>
       <c r="L627" s="2"/>
     </row>
-    <row r="628" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
         <v>154</v>
       </c>
@@ -23096,7 +23099,7 @@
       </c>
       <c r="L628" s="2"/>
     </row>
-    <row r="629" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
         <v>154</v>
       </c>
@@ -23128,7 +23131,7 @@
       <c r="K629" s="2"/>
       <c r="L629" s="2"/>
     </row>
-    <row r="630" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
         <v>154</v>
       </c>
@@ -23160,7 +23163,7 @@
       <c r="K630" s="2"/>
       <c r="L630" s="2"/>
     </row>
-    <row r="631" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="2" t="s">
         <v>154</v>
       </c>
@@ -23196,7 +23199,7 @@
       </c>
       <c r="L631" s="2"/>
     </row>
-    <row r="632" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
         <v>154</v>
       </c>
@@ -23228,7 +23231,7 @@
       <c r="K632" s="2"/>
       <c r="L632" s="2"/>
     </row>
-    <row r="633" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
         <v>154</v>
       </c>
@@ -23260,7 +23263,7 @@
       <c r="K633" s="2"/>
       <c r="L633" s="2"/>
     </row>
-    <row r="634" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
         <v>154</v>
       </c>
@@ -23296,7 +23299,7 @@
       </c>
       <c r="L634" s="2"/>
     </row>
-    <row r="635" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
         <v>154</v>
       </c>
@@ -23328,7 +23331,7 @@
       <c r="K635" s="2"/>
       <c r="L635" s="2"/>
     </row>
-    <row r="636" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
         <v>154</v>
       </c>
@@ -23360,7 +23363,7 @@
       <c r="K636" s="2"/>
       <c r="L636" s="2"/>
     </row>
-    <row r="637" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
         <v>154</v>
       </c>
@@ -23396,7 +23399,7 @@
       </c>
       <c r="L637" s="2"/>
     </row>
-    <row r="638" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
         <v>154</v>
       </c>
@@ -23428,7 +23431,7 @@
       <c r="K638" s="2"/>
       <c r="L638" s="2"/>
     </row>
-    <row r="639" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
         <v>154</v>
       </c>
@@ -23460,7 +23463,7 @@
       <c r="K639" s="2"/>
       <c r="L639" s="2"/>
     </row>
-    <row r="640" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
         <v>154</v>
       </c>
@@ -23496,7 +23499,7 @@
       </c>
       <c r="L640" s="2"/>
     </row>
-    <row r="641" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
         <v>154</v>
       </c>
@@ -23528,7 +23531,7 @@
       <c r="K641" s="2"/>
       <c r="L641" s="2"/>
     </row>
-    <row r="642" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
         <v>154</v>
       </c>
@@ -23560,7 +23563,7 @@
       <c r="K642" s="2"/>
       <c r="L642" s="2"/>
     </row>
-    <row r="643" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
         <v>154</v>
       </c>
@@ -23596,7 +23599,7 @@
       </c>
       <c r="L643" s="2"/>
     </row>
-    <row r="644" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
         <v>154</v>
       </c>
@@ -23628,7 +23631,7 @@
       <c r="K644" s="2"/>
       <c r="L644" s="2"/>
     </row>
-    <row r="645" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
         <v>154</v>
       </c>
@@ -23660,7 +23663,7 @@
       <c r="K645" s="2"/>
       <c r="L645" s="2"/>
     </row>
-    <row r="646" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
         <v>154</v>
       </c>
@@ -23696,7 +23699,7 @@
       </c>
       <c r="L646" s="2"/>
     </row>
-    <row r="647" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
         <v>154</v>
       </c>
@@ -23728,7 +23731,7 @@
       <c r="K647" s="2"/>
       <c r="L647" s="2"/>
     </row>
-    <row r="648" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
         <v>154</v>
       </c>
@@ -23760,7 +23763,7 @@
       <c r="K648" s="2"/>
       <c r="L648" s="2"/>
     </row>
-    <row r="649" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
         <v>154</v>
       </c>
@@ -23792,7 +23795,7 @@
       <c r="K649" s="2"/>
       <c r="L649" s="2"/>
     </row>
-    <row r="650" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="2" t="s">
         <v>154</v>
       </c>
@@ -23828,7 +23831,7 @@
       </c>
       <c r="L650" s="2"/>
     </row>
-    <row r="651" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
         <v>154</v>
       </c>
@@ -23860,7 +23863,7 @@
       <c r="K651" s="2"/>
       <c r="L651" s="2"/>
     </row>
-    <row r="652" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
         <v>154</v>
       </c>
@@ -23896,7 +23899,7 @@
       </c>
       <c r="L652" s="2"/>
     </row>
-    <row r="653" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
         <v>154</v>
       </c>
@@ -23928,7 +23931,7 @@
       <c r="K653" s="2"/>
       <c r="L653" s="2"/>
     </row>
-    <row r="654" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
         <v>154</v>
       </c>
@@ -23964,7 +23967,7 @@
       </c>
       <c r="L654" s="2"/>
     </row>
-    <row r="655" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
         <v>154</v>
       </c>
@@ -23996,7 +23999,7 @@
       <c r="K655" s="2"/>
       <c r="L655" s="2"/>
     </row>
-    <row r="656" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
         <v>154</v>
       </c>
@@ -24028,7 +24031,7 @@
       <c r="K656" s="2"/>
       <c r="L656" s="2"/>
     </row>
-    <row r="657" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="2" t="s">
         <v>154</v>
       </c>
@@ -24060,7 +24063,7 @@
       <c r="K657" s="2"/>
       <c r="L657" s="2"/>
     </row>
-    <row r="658" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="2" t="s">
         <v>154</v>
       </c>
@@ -24092,7 +24095,7 @@
       <c r="K658" s="2"/>
       <c r="L658" s="2"/>
     </row>
-    <row r="659" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="2" t="s">
         <v>154</v>
       </c>
@@ -24124,7 +24127,7 @@
       <c r="K659" s="2"/>
       <c r="L659" s="2"/>
     </row>
-    <row r="660" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="2" t="s">
         <v>154</v>
       </c>
@@ -24156,7 +24159,7 @@
       <c r="K660" s="2"/>
       <c r="L660" s="2"/>
     </row>
-    <row r="661" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="2" t="s">
         <v>154</v>
       </c>
@@ -24186,7 +24189,7 @@
       <c r="K661" s="2"/>
       <c r="L661" s="2"/>
     </row>
-    <row r="662" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="2" t="s">
         <v>154</v>
       </c>
@@ -24222,7 +24225,7 @@
       </c>
       <c r="L662" s="2"/>
     </row>
-    <row r="663" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="2" t="s">
         <v>154</v>
       </c>
@@ -24318,7 +24321,7 @@
       <c r="K665" s="2"/>
       <c r="L665" s="2"/>
     </row>
-    <row r="666" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
         <v>154</v>
       </c>
@@ -24354,7 +24357,7 @@
       </c>
       <c r="L666" s="2"/>
     </row>
-    <row r="667" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="2" t="s">
         <v>154</v>
       </c>
@@ -24390,7 +24393,7 @@
       </c>
       <c r="L667" s="2"/>
     </row>
-    <row r="668" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="2" t="s">
         <v>154</v>
       </c>
@@ -24486,7 +24489,7 @@
       <c r="K670" s="2"/>
       <c r="L670" s="2"/>
     </row>
-    <row r="671" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="2" t="s">
         <v>154</v>
       </c>
@@ -24522,7 +24525,7 @@
       </c>
       <c r="L671" s="2"/>
     </row>
-    <row r="672" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="2" t="s">
         <v>154</v>
       </c>
@@ -24558,7 +24561,7 @@
       </c>
       <c r="L672" s="2"/>
     </row>
-    <row r="673" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2" t="s">
         <v>154</v>
       </c>
@@ -24654,7 +24657,7 @@
       <c r="K675" s="2"/>
       <c r="L675" s="2"/>
     </row>
-    <row r="676" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2" t="s">
         <v>154</v>
       </c>
@@ -24690,7 +24693,7 @@
       </c>
       <c r="L676" s="2"/>
     </row>
-    <row r="677" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2" t="s">
         <v>154</v>
       </c>
@@ -24726,7 +24729,7 @@
       </c>
       <c r="L677" s="2"/>
     </row>
-    <row r="678" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2" t="s">
         <v>154</v>
       </c>
@@ -24762,7 +24765,7 @@
       </c>
       <c r="L678" s="2"/>
     </row>
-    <row r="679" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="2" t="s">
         <v>154</v>
       </c>
@@ -24798,7 +24801,7 @@
       </c>
       <c r="L679" s="2"/>
     </row>
-    <row r="680" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2" t="s">
         <v>154</v>
       </c>
@@ -24834,7 +24837,7 @@
       </c>
       <c r="L680" s="2"/>
     </row>
-    <row r="681" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2" t="s">
         <v>196</v>
       </c>
@@ -24870,7 +24873,7 @@
       </c>
       <c r="L681" s="2"/>
     </row>
-    <row r="682" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2" t="s">
         <v>196</v>
       </c>
@@ -24906,7 +24909,7 @@
       </c>
       <c r="L682" s="2"/>
     </row>
-    <row r="683" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="2" t="s">
         <v>196</v>
       </c>
@@ -24942,7 +24945,7 @@
       </c>
       <c r="L683" s="2"/>
     </row>
-    <row r="684" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2" t="s">
         <v>196</v>
       </c>
@@ -24978,7 +24981,7 @@
       </c>
       <c r="L684" s="2"/>
     </row>
-    <row r="685" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2" t="s">
         <v>196</v>
       </c>
@@ -25010,7 +25013,7 @@
       <c r="K685" s="2"/>
       <c r="L685" s="2"/>
     </row>
-    <row r="686" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="2" t="s">
         <v>196</v>
       </c>
@@ -25042,7 +25045,7 @@
       <c r="K686" s="2"/>
       <c r="L686" s="2"/>
     </row>
-    <row r="687" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2" t="s">
         <v>196</v>
       </c>
@@ -25074,7 +25077,7 @@
       <c r="K687" s="2"/>
       <c r="L687" s="2"/>
     </row>
-    <row r="688" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
         <v>196</v>
       </c>
@@ -25106,7 +25109,7 @@
       <c r="K688" s="2"/>
       <c r="L688" s="2"/>
     </row>
-    <row r="689" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="2" t="s">
         <v>196</v>
       </c>
@@ -25136,7 +25139,7 @@
       <c r="K689" s="2"/>
       <c r="L689" s="2"/>
     </row>
-    <row r="690" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
         <v>196</v>
       </c>
@@ -25172,7 +25175,7 @@
       </c>
       <c r="L690" s="2"/>
     </row>
-    <row r="691" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="2" t="s">
         <v>196</v>
       </c>
@@ -25204,7 +25207,7 @@
       <c r="K691" s="2"/>
       <c r="L691" s="2"/>
     </row>
-    <row r="692" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="2" t="s">
         <v>196</v>
       </c>
@@ -25236,7 +25239,7 @@
       <c r="K692" s="2"/>
       <c r="L692" s="2"/>
     </row>
-    <row r="693" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2" t="s">
         <v>196</v>
       </c>
@@ -25272,7 +25275,7 @@
       </c>
       <c r="L693" s="2"/>
     </row>
-    <row r="694" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="2" t="s">
         <v>196</v>
       </c>
@@ -25308,7 +25311,7 @@
       </c>
       <c r="L694" s="2"/>
     </row>
-    <row r="695" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2" t="s">
         <v>196</v>
       </c>
@@ -25340,7 +25343,7 @@
       <c r="K695" s="2"/>
       <c r="L695" s="2"/>
     </row>
-    <row r="696" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2" t="s">
         <v>196</v>
       </c>
@@ -25372,7 +25375,7 @@
       <c r="K696" s="2"/>
       <c r="L696" s="2"/>
     </row>
-    <row r="697" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="2" t="s">
         <v>196</v>
       </c>
@@ -25408,7 +25411,7 @@
       </c>
       <c r="L697" s="2"/>
     </row>
-    <row r="698" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2" t="s">
         <v>196</v>
       </c>
@@ -25440,7 +25443,7 @@
       <c r="K698" s="2"/>
       <c r="L698" s="2"/>
     </row>
-    <row r="699" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="2" t="s">
         <v>196</v>
       </c>
@@ -25472,7 +25475,7 @@
       <c r="K699" s="2"/>
       <c r="L699" s="2"/>
     </row>
-    <row r="700" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2" t="s">
         <v>196</v>
       </c>
@@ -25508,7 +25511,7 @@
       </c>
       <c r="L700" s="2"/>
     </row>
-    <row r="701" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2" t="s">
         <v>196</v>
       </c>
@@ -25544,7 +25547,7 @@
       </c>
       <c r="L701" s="2"/>
     </row>
-    <row r="702" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="2" t="s">
         <v>196</v>
       </c>
@@ -25576,7 +25579,7 @@
       <c r="K702" s="2"/>
       <c r="L702" s="2"/>
     </row>
-    <row r="703" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2" t="s">
         <v>196</v>
       </c>
@@ -25612,7 +25615,7 @@
       </c>
       <c r="L703" s="2"/>
     </row>
-    <row r="704" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="2" t="s">
         <v>196</v>
       </c>
@@ -25644,7 +25647,7 @@
       <c r="K704" s="2"/>
       <c r="L704" s="2"/>
     </row>
-    <row r="705" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="2" t="s">
         <v>196</v>
       </c>
@@ -25676,7 +25679,7 @@
       <c r="K705" s="2"/>
       <c r="L705" s="2"/>
     </row>
-    <row r="706" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="2" t="s">
         <v>196</v>
       </c>
@@ -25712,7 +25715,7 @@
       </c>
       <c r="L706" s="2"/>
     </row>
-    <row r="707" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="2" t="s">
         <v>196</v>
       </c>
@@ -25748,7 +25751,7 @@
       </c>
       <c r="L707" s="2"/>
     </row>
-    <row r="708" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="2" t="s">
         <v>196</v>
       </c>
@@ -25780,7 +25783,7 @@
       <c r="K708" s="2"/>
       <c r="L708" s="2"/>
     </row>
-    <row r="709" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="2" t="s">
         <v>196</v>
       </c>
@@ -25812,7 +25815,7 @@
       <c r="K709" s="2"/>
       <c r="L709" s="2"/>
     </row>
-    <row r="710" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="2" t="s">
         <v>196</v>
       </c>
@@ -25848,7 +25851,7 @@
       </c>
       <c r="L710" s="2"/>
     </row>
-    <row r="711" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="2" t="s">
         <v>196</v>
       </c>
@@ -25880,7 +25883,7 @@
       <c r="K711" s="2"/>
       <c r="L711" s="2"/>
     </row>
-    <row r="712" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="2" t="s">
         <v>196</v>
       </c>
@@ -25912,7 +25915,7 @@
       <c r="K712" s="2"/>
       <c r="L712" s="2"/>
     </row>
-    <row r="713" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="2" t="s">
         <v>196</v>
       </c>
@@ -25948,7 +25951,7 @@
       </c>
       <c r="L713" s="2"/>
     </row>
-    <row r="714" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="2" t="s">
         <v>196</v>
       </c>
@@ -25984,7 +25987,7 @@
       </c>
       <c r="L714" s="2"/>
     </row>
-    <row r="715" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="2" t="s">
         <v>196</v>
       </c>
@@ -26016,7 +26019,7 @@
       <c r="K715" s="2"/>
       <c r="L715" s="2"/>
     </row>
-    <row r="716" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="2" t="s">
         <v>196</v>
       </c>
@@ -26052,7 +26055,7 @@
       </c>
       <c r="L716" s="2"/>
     </row>
-    <row r="717" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="2" t="s">
         <v>196</v>
       </c>
@@ -26084,7 +26087,7 @@
       <c r="K717" s="2"/>
       <c r="L717" s="2"/>
     </row>
-    <row r="718" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="2" t="s">
         <v>196</v>
       </c>
@@ -26116,7 +26119,7 @@
       <c r="K718" s="2"/>
       <c r="L718" s="2"/>
     </row>
-    <row r="719" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="2" t="s">
         <v>196</v>
       </c>
@@ -26152,7 +26155,7 @@
       </c>
       <c r="L719" s="2"/>
     </row>
-    <row r="720" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="2" t="s">
         <v>196</v>
       </c>
@@ -26188,7 +26191,7 @@
       </c>
       <c r="L720" s="2"/>
     </row>
-    <row r="721" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="2" t="s">
         <v>196</v>
       </c>
@@ -26220,7 +26223,7 @@
       <c r="K721" s="2"/>
       <c r="L721" s="2"/>
     </row>
-    <row r="722" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="2" t="s">
         <v>196</v>
       </c>
@@ -26252,7 +26255,7 @@
       <c r="K722" s="2"/>
       <c r="L722" s="2"/>
     </row>
-    <row r="723" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="2" t="s">
         <v>196</v>
       </c>
@@ -26288,7 +26291,7 @@
       </c>
       <c r="L723" s="2"/>
     </row>
-    <row r="724" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="2" t="s">
         <v>196</v>
       </c>
@@ -26320,7 +26323,7 @@
       <c r="K724" s="2"/>
       <c r="L724" s="2"/>
     </row>
-    <row r="725" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="2" t="s">
         <v>196</v>
       </c>
@@ -26352,7 +26355,7 @@
       <c r="K725" s="2"/>
       <c r="L725" s="2"/>
     </row>
-    <row r="726" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="2" t="s">
         <v>196</v>
       </c>
@@ -26388,7 +26391,7 @@
       </c>
       <c r="L726" s="2"/>
     </row>
-    <row r="727" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="2" t="s">
         <v>196</v>
       </c>
@@ -26424,7 +26427,7 @@
       </c>
       <c r="L727" s="2"/>
     </row>
-    <row r="728" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="2" t="s">
         <v>196</v>
       </c>
@@ -26456,7 +26459,7 @@
       <c r="K728" s="2"/>
       <c r="L728" s="2"/>
     </row>
-    <row r="729" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="2" t="s">
         <v>196</v>
       </c>
@@ -26484,7 +26487,7 @@
       <c r="K729" s="2"/>
       <c r="L729" s="2"/>
     </row>
-    <row r="730" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="2" t="s">
         <v>309</v>
       </c>
@@ -26516,7 +26519,7 @@
       <c r="K730" s="2"/>
       <c r="L730" s="2"/>
     </row>
-    <row r="731" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="2" t="s">
         <v>309</v>
       </c>
@@ -26548,7 +26551,7 @@
       <c r="K731" s="2"/>
       <c r="L731" s="2"/>
     </row>
-    <row r="732" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="2" t="s">
         <v>309</v>
       </c>
@@ -26580,7 +26583,7 @@
       <c r="K732" s="2"/>
       <c r="L732" s="2"/>
     </row>
-    <row r="733" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="2" t="s">
         <v>309</v>
       </c>
@@ -26612,7 +26615,7 @@
       <c r="K733" s="2"/>
       <c r="L733" s="2"/>
     </row>
-    <row r="734" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="2" t="s">
         <v>309</v>
       </c>
@@ -26648,7 +26651,7 @@
       </c>
       <c r="L734" s="2"/>
     </row>
-    <row r="735" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="2" t="s">
         <v>309</v>
       </c>
@@ -26680,7 +26683,7 @@
       <c r="K735" s="2"/>
       <c r="L735" s="2"/>
     </row>
-    <row r="736" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="2" t="s">
         <v>309</v>
       </c>
@@ -26712,7 +26715,7 @@
       <c r="K736" s="2"/>
       <c r="L736" s="2"/>
     </row>
-    <row r="737" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="2" t="s">
         <v>309</v>
       </c>
@@ -26748,7 +26751,7 @@
       </c>
       <c r="L737" s="2"/>
     </row>
-    <row r="738" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="2" t="s">
         <v>309</v>
       </c>
@@ -26778,7 +26781,7 @@
       <c r="K738" s="2"/>
       <c r="L738" s="2"/>
     </row>
-    <row r="739" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="2" t="s">
         <v>309</v>
       </c>
@@ -26808,7 +26811,7 @@
       <c r="K739" s="2"/>
       <c r="L739" s="2"/>
     </row>
-    <row r="740" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="2" t="s">
         <v>309</v>
       </c>
@@ -26840,7 +26843,7 @@
       <c r="K740" s="2"/>
       <c r="L740" s="2"/>
     </row>
-    <row r="741" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="2" t="s">
         <v>309</v>
       </c>
@@ -26872,7 +26875,7 @@
       <c r="K741" s="2"/>
       <c r="L741" s="2"/>
     </row>
-    <row r="742" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="2" t="s">
         <v>309</v>
       </c>
@@ -26908,7 +26911,7 @@
       </c>
       <c r="L742" s="2"/>
     </row>
-    <row r="743" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="2" t="s">
         <v>309</v>
       </c>
@@ -26940,7 +26943,7 @@
       <c r="K743" s="2"/>
       <c r="L743" s="2"/>
     </row>
-    <row r="744" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="2" t="s">
         <v>309</v>
       </c>
@@ -26972,7 +26975,7 @@
       <c r="K744" s="2"/>
       <c r="L744" s="2"/>
     </row>
-    <row r="745" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="2" t="s">
         <v>309</v>
       </c>
@@ -27004,7 +27007,7 @@
       <c r="K745" s="2"/>
       <c r="L745" s="2"/>
     </row>
-    <row r="746" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="2" t="s">
         <v>309</v>
       </c>
@@ -27036,7 +27039,7 @@
       <c r="K746" s="2"/>
       <c r="L746" s="2"/>
     </row>
-    <row r="747" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="2" t="s">
         <v>309</v>
       </c>
@@ -27072,7 +27075,7 @@
       </c>
       <c r="L747" s="2"/>
     </row>
-    <row r="748" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="2" t="s">
         <v>309</v>
       </c>
@@ -27108,7 +27111,7 @@
       </c>
       <c r="L748" s="2"/>
     </row>
-    <row r="749" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="2" t="s">
         <v>309</v>
       </c>
@@ -27144,7 +27147,7 @@
       </c>
       <c r="L749" s="2"/>
     </row>
-    <row r="750" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="2" t="s">
         <v>309</v>
       </c>
@@ -27176,7 +27179,7 @@
       <c r="K750" s="2"/>
       <c r="L750" s="2"/>
     </row>
-    <row r="751" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="2" t="s">
         <v>309</v>
       </c>
@@ -27208,7 +27211,7 @@
       <c r="K751" s="2"/>
       <c r="L751" s="2"/>
     </row>
-    <row r="752" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="2" t="s">
         <v>309</v>
       </c>
@@ -27244,7 +27247,7 @@
       </c>
       <c r="L752" s="2"/>
     </row>
-    <row r="753" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="2" t="s">
         <v>309</v>
       </c>
@@ -27276,7 +27279,7 @@
       <c r="K753" s="2"/>
       <c r="L753" s="2"/>
     </row>
-    <row r="754" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="2" t="s">
         <v>309</v>
       </c>
@@ -27308,7 +27311,7 @@
       <c r="K754" s="2"/>
       <c r="L754" s="2"/>
     </row>
-    <row r="755" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="2" t="s">
         <v>309</v>
       </c>
@@ -27340,7 +27343,7 @@
       <c r="K755" s="2"/>
       <c r="L755" s="2"/>
     </row>
-    <row r="756" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="2" t="s">
         <v>309</v>
       </c>
@@ -27372,7 +27375,7 @@
       <c r="K756" s="2"/>
       <c r="L756" s="2"/>
     </row>
-    <row r="757" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="2" t="s">
         <v>309</v>
       </c>
@@ -27408,7 +27411,7 @@
       </c>
       <c r="L757" s="2"/>
     </row>
-    <row r="758" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="2" t="s">
         <v>309</v>
       </c>
@@ -27444,7 +27447,7 @@
       </c>
       <c r="L758" s="2"/>
     </row>
-    <row r="759" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="2" t="s">
         <v>309</v>
       </c>
@@ -27480,7 +27483,7 @@
       </c>
       <c r="L759" s="2"/>
     </row>
-    <row r="760" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="2" t="s">
         <v>309</v>
       </c>
@@ -27512,7 +27515,7 @@
       <c r="K760" s="2"/>
       <c r="L760" s="2"/>
     </row>
-    <row r="761" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="2" t="s">
         <v>309</v>
       </c>
@@ -27544,7 +27547,7 @@
       <c r="K761" s="2"/>
       <c r="L761" s="2"/>
     </row>
-    <row r="762" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="2" t="s">
         <v>309</v>
       </c>
@@ -27580,7 +27583,7 @@
       </c>
       <c r="L762" s="2"/>
     </row>
-    <row r="763" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="2" t="s">
         <v>309</v>
       </c>
@@ -27612,7 +27615,7 @@
       <c r="K763" s="2"/>
       <c r="L763" s="2"/>
     </row>
-    <row r="764" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="2" t="s">
         <v>309</v>
       </c>
@@ -27644,7 +27647,7 @@
       <c r="K764" s="2"/>
       <c r="L764" s="2"/>
     </row>
-    <row r="765" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="2" t="s">
         <v>309</v>
       </c>
@@ -27676,7 +27679,7 @@
       <c r="K765" s="2"/>
       <c r="L765" s="2"/>
     </row>
-    <row r="766" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="2" t="s">
         <v>309</v>
       </c>
@@ -27708,7 +27711,7 @@
       <c r="K766" s="2"/>
       <c r="L766" s="2"/>
     </row>
-    <row r="767" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="2" t="s">
         <v>309</v>
       </c>
@@ -27744,7 +27747,7 @@
       </c>
       <c r="L767" s="2"/>
     </row>
-    <row r="768" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="2" t="s">
         <v>309</v>
       </c>
@@ -27780,7 +27783,7 @@
       </c>
       <c r="L768" s="2"/>
     </row>
-    <row r="769" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="2" t="s">
         <v>309</v>
       </c>
@@ -27816,7 +27819,7 @@
       </c>
       <c r="L769" s="2"/>
     </row>
-    <row r="770" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="2" t="s">
         <v>309</v>
       </c>
@@ -27876,7 +27879,7 @@
       <c r="K771" s="2"/>
       <c r="L771" s="2"/>
     </row>
-    <row r="772" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="2" t="s">
         <v>309</v>
       </c>
@@ -27912,7 +27915,7 @@
       </c>
       <c r="L772" s="2"/>
     </row>
-    <row r="773" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="2" t="s">
         <v>309</v>
       </c>
@@ -27948,7 +27951,7 @@
       </c>
       <c r="L773" s="2"/>
     </row>
-    <row r="774" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="2" t="s">
         <v>309</v>
       </c>
@@ -27984,7 +27987,7 @@
       </c>
       <c r="L774" s="2"/>
     </row>
-    <row r="775" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="2" t="s">
         <v>309</v>
       </c>
@@ -28020,7 +28023,7 @@
       </c>
       <c r="L775" s="2"/>
     </row>
-    <row r="776" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="2" t="s">
         <v>309</v>
       </c>
@@ -28056,7 +28059,7 @@
       </c>
       <c r="L776" s="2"/>
     </row>
-    <row r="777" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="2" t="s">
         <v>309</v>
       </c>
@@ -28092,7 +28095,7 @@
       </c>
       <c r="L777" s="2"/>
     </row>
-    <row r="778" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="2" t="s">
         <v>309</v>
       </c>
@@ -28128,7 +28131,7 @@
       </c>
       <c r="L778" s="2"/>
     </row>
-    <row r="779" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="2" t="s">
         <v>309</v>
       </c>
@@ -28162,7 +28165,7 @@
       <c r="K779" s="2"/>
       <c r="L779" s="2"/>
     </row>
-    <row r="780" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" s="2" t="s">
         <v>309</v>
       </c>
@@ -28194,7 +28197,7 @@
       <c r="K780" s="2"/>
       <c r="L780" s="2"/>
     </row>
-    <row r="781" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="2" t="s">
         <v>309</v>
       </c>
@@ -28226,7 +28229,7 @@
       <c r="K781" s="2"/>
       <c r="L781" s="2"/>
     </row>
-    <row r="782" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" s="2" t="s">
         <v>309</v>
       </c>
@@ -28258,7 +28261,7 @@
       <c r="K782" s="2"/>
       <c r="L782" s="2"/>
     </row>
-    <row r="783" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="2" t="s">
         <v>309</v>
       </c>
@@ -28294,7 +28297,7 @@
       </c>
       <c r="L783" s="2"/>
     </row>
-    <row r="784" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" s="2" t="s">
         <v>309</v>
       </c>
@@ -28326,7 +28329,7 @@
       <c r="K784" s="2"/>
       <c r="L784" s="2"/>
     </row>
-    <row r="785" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="2" t="s">
         <v>309</v>
       </c>
@@ -28358,7 +28361,7 @@
       <c r="K785" s="2"/>
       <c r="L785" s="2"/>
     </row>
-    <row r="786" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="2" t="s">
         <v>309</v>
       </c>
@@ -28388,7 +28391,7 @@
       <c r="K786" s="2"/>
       <c r="L786" s="2"/>
     </row>
-    <row r="787" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="2" t="s">
         <v>309</v>
       </c>
@@ -28418,7 +28421,7 @@
       <c r="K787" s="2"/>
       <c r="L787" s="2"/>
     </row>
-    <row r="788" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" s="2" t="s">
         <v>519</v>
       </c>
@@ -28446,7 +28449,7 @@
       <c r="K788" s="2"/>
       <c r="L788" s="2"/>
     </row>
-    <row r="789" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" s="2" t="s">
         <v>519</v>
       </c>
@@ -28476,7 +28479,7 @@
       <c r="K789" s="2"/>
       <c r="L789" s="2"/>
     </row>
-    <row r="790" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" s="2" t="s">
         <v>519</v>
       </c>
@@ -28506,7 +28509,7 @@
       <c r="K790" s="2"/>
       <c r="L790" s="2"/>
     </row>
-    <row r="791" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" s="2" t="s">
         <v>519</v>
       </c>
@@ -28536,7 +28539,7 @@
       <c r="K791" s="2"/>
       <c r="L791" s="2"/>
     </row>
-    <row r="792" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="2" t="s">
         <v>537</v>
       </c>
@@ -28566,7 +28569,7 @@
       <c r="K792" s="2"/>
       <c r="L792" s="2"/>
     </row>
-    <row r="793" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" s="2" t="s">
         <v>537</v>
       </c>
@@ -28596,7 +28599,7 @@
       <c r="K793" s="2"/>
       <c r="L793" s="2"/>
     </row>
-    <row r="794" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" s="2" t="s">
         <v>543</v>
       </c>
@@ -28624,7 +28627,7 @@
       <c r="K794" s="2"/>
       <c r="L794" s="2"/>
     </row>
-    <row r="795" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" s="2" t="s">
         <v>101</v>
       </c>
@@ -28654,7 +28657,7 @@
       <c r="K795" s="2"/>
       <c r="L795" s="2"/>
     </row>
-    <row r="796" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" s="2" t="s">
         <v>101</v>
       </c>
@@ -28686,7 +28689,7 @@
       <c r="K796" s="2"/>
       <c r="L796" s="2"/>
     </row>
-    <row r="797" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" s="2" t="s">
         <v>101</v>
       </c>
@@ -28718,7 +28721,7 @@
       <c r="K797" s="2"/>
       <c r="L797" s="2"/>
     </row>
-    <row r="798" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" s="2" t="s">
         <v>101</v>
       </c>
@@ -28750,7 +28753,7 @@
       <c r="K798" s="2"/>
       <c r="L798" s="2"/>
     </row>
-    <row r="799" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" s="2" t="s">
         <v>101</v>
       </c>
@@ -28782,7 +28785,7 @@
       <c r="K799" s="2"/>
       <c r="L799" s="2"/>
     </row>
-    <row r="800" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" s="2" t="s">
         <v>101</v>
       </c>
@@ -28814,7 +28817,7 @@
       <c r="K800" s="2"/>
       <c r="L800" s="2"/>
     </row>
-    <row r="801" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" s="2" t="s">
         <v>101</v>
       </c>
@@ -28846,7 +28849,7 @@
       <c r="K801" s="2"/>
       <c r="L801" s="2"/>
     </row>
-    <row r="802" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" s="2" t="s">
         <v>101</v>
       </c>
@@ -28878,7 +28881,7 @@
       <c r="K802" s="2"/>
       <c r="L802" s="2"/>
     </row>
-    <row r="803" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" s="2" t="s">
         <v>101</v>
       </c>
@@ -28910,7 +28913,7 @@
       <c r="K803" s="2"/>
       <c r="L803" s="2"/>
     </row>
-    <row r="804" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" s="2" t="s">
         <v>101</v>
       </c>
@@ -28942,7 +28945,7 @@
       <c r="K804" s="2"/>
       <c r="L804" s="2"/>
     </row>
-    <row r="805" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" s="2" t="s">
         <v>101</v>
       </c>
@@ -28974,7 +28977,7 @@
       <c r="K805" s="2"/>
       <c r="L805" s="2"/>
     </row>
-    <row r="806" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" s="2" t="s">
         <v>101</v>
       </c>
@@ -29006,7 +29009,7 @@
       <c r="K806" s="2"/>
       <c r="L806" s="2"/>
     </row>
-    <row r="807" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" s="2" t="s">
         <v>101</v>
       </c>
@@ -29038,7 +29041,7 @@
       <c r="K807" s="2"/>
       <c r="L807" s="2"/>
     </row>
-    <row r="808" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" s="2" t="s">
         <v>101</v>
       </c>
@@ -29070,7 +29073,7 @@
       <c r="K808" s="2"/>
       <c r="L808" s="2"/>
     </row>
-    <row r="809" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" s="2" t="s">
         <v>101</v>
       </c>
@@ -29102,7 +29105,7 @@
       <c r="K809" s="2"/>
       <c r="L809" s="2"/>
     </row>
-    <row r="810" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" s="2" t="s">
         <v>101</v>
       </c>
@@ -29134,7 +29137,7 @@
       <c r="K810" s="2"/>
       <c r="L810" s="2"/>
     </row>
-    <row r="811" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" s="2" t="s">
         <v>101</v>
       </c>
@@ -29166,7 +29169,7 @@
       <c r="K811" s="2"/>
       <c r="L811" s="2"/>
     </row>
-    <row r="812" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" s="2" t="s">
         <v>101</v>
       </c>
@@ -29198,7 +29201,7 @@
       <c r="K812" s="2"/>
       <c r="L812" s="2"/>
     </row>
-    <row r="813" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" s="2" t="s">
         <v>101</v>
       </c>
@@ -29230,7 +29233,7 @@
       <c r="K813" s="2"/>
       <c r="L813" s="2"/>
     </row>
-    <row r="814" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" s="2" t="s">
         <v>101</v>
       </c>
@@ -29262,7 +29265,7 @@
       <c r="K814" s="2"/>
       <c r="L814" s="2"/>
     </row>
-    <row r="815" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" s="2" t="s">
         <v>101</v>
       </c>
@@ -29298,7 +29301,7 @@
       </c>
       <c r="L815" s="2"/>
     </row>
-    <row r="816" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" s="2" t="s">
         <v>101</v>
       </c>
@@ -29334,7 +29337,7 @@
       </c>
       <c r="L816" s="2"/>
     </row>
-    <row r="817" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" s="2" t="s">
         <v>101</v>
       </c>
@@ -29370,7 +29373,7 @@
       </c>
       <c r="L817" s="2"/>
     </row>
-    <row r="818" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" s="2" t="s">
         <v>101</v>
       </c>
@@ -29406,7 +29409,7 @@
       </c>
       <c r="L818" s="2"/>
     </row>
-    <row r="819" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" s="2" t="s">
         <v>101</v>
       </c>
@@ -29442,7 +29445,7 @@
       </c>
       <c r="L819" s="2"/>
     </row>
-    <row r="820" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" s="2" t="s">
         <v>101</v>
       </c>
@@ -29478,7 +29481,7 @@
       </c>
       <c r="L820" s="2"/>
     </row>
-    <row r="821" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" s="2" t="s">
         <v>101</v>
       </c>
@@ -29514,7 +29517,7 @@
       </c>
       <c r="L821" s="2"/>
     </row>
-    <row r="822" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" s="2" t="s">
         <v>101</v>
       </c>
@@ -29550,7 +29553,7 @@
       </c>
       <c r="L822" s="2"/>
     </row>
-    <row r="823" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" s="2" t="s">
         <v>101</v>
       </c>
@@ -29586,7 +29589,7 @@
       </c>
       <c r="L823" s="2"/>
     </row>
-    <row r="824" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" s="2" t="s">
         <v>101</v>
       </c>
@@ -29616,7 +29619,7 @@
       <c r="K824" s="2"/>
       <c r="L824" s="2"/>
     </row>
-    <row r="825" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" s="2" t="s">
         <v>101</v>
       </c>
@@ -29646,7 +29649,7 @@
       <c r="K825" s="2"/>
       <c r="L825" s="2"/>
     </row>
-    <row r="826" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" s="2" t="s">
         <v>101</v>
       </c>
@@ -29708,7 +29711,7 @@
       <c r="K827" s="2"/>
       <c r="L827" s="2"/>
     </row>
-    <row r="828" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" s="2" t="s">
         <v>101</v>
       </c>
@@ -29742,7 +29745,7 @@
       </c>
       <c r="L828" s="2"/>
     </row>
-    <row r="829" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" s="2" t="s">
         <v>101</v>
       </c>
@@ -29776,7 +29779,7 @@
       </c>
       <c r="L829" s="2"/>
     </row>
-    <row r="830" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" s="2" t="s">
         <v>101</v>
       </c>
@@ -29812,7 +29815,7 @@
       </c>
       <c r="L830" s="2"/>
     </row>
-    <row r="831" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" s="2" t="s">
         <v>101</v>
       </c>
@@ -29848,7 +29851,7 @@
       </c>
       <c r="L831" s="2"/>
     </row>
-    <row r="832" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" s="2" t="s">
         <v>101</v>
       </c>
@@ -29884,7 +29887,7 @@
       </c>
       <c r="L832" s="2"/>
     </row>
-    <row r="833" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" s="2" t="s">
         <v>101</v>
       </c>
@@ -29920,7 +29923,7 @@
       </c>
       <c r="L833" s="2"/>
     </row>
-    <row r="834" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" s="2" t="s">
         <v>101</v>
       </c>
@@ -29956,7 +29959,7 @@
       </c>
       <c r="L834" s="2"/>
     </row>
-    <row r="835" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" s="2" t="s">
         <v>101</v>
       </c>
@@ -29992,7 +29995,7 @@
       </c>
       <c r="L835" s="2"/>
     </row>
-    <row r="836" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" s="2" t="s">
         <v>101</v>
       </c>
@@ -30028,7 +30031,7 @@
       </c>
       <c r="L836" s="2"/>
     </row>
-    <row r="837" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" s="2" t="s">
         <v>101</v>
       </c>
@@ -30064,7 +30067,7 @@
       </c>
       <c r="L837" s="2"/>
     </row>
-    <row r="838" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" s="2" t="s">
         <v>101</v>
       </c>
@@ -30128,7 +30131,7 @@
       <c r="K839" s="2"/>
       <c r="L839" s="2"/>
     </row>
-    <row r="840" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" s="2" t="s">
         <v>101</v>
       </c>
@@ -30160,7 +30163,7 @@
       <c r="K840" s="2"/>
       <c r="L840" s="2"/>
     </row>
-    <row r="841" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" s="2" t="s">
         <v>101</v>
       </c>
@@ -30224,7 +30227,7 @@
       <c r="K842" s="2"/>
       <c r="L842" s="2"/>
     </row>
-    <row r="843" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" s="2" t="s">
         <v>101</v>
       </c>
@@ -30256,7 +30259,7 @@
       <c r="K843" s="2"/>
       <c r="L843" s="2"/>
     </row>
-    <row r="844" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" s="2" t="s">
         <v>101</v>
       </c>
@@ -30320,7 +30323,7 @@
       <c r="K845" s="2"/>
       <c r="L845" s="2"/>
     </row>
-    <row r="846" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" s="2" t="s">
         <v>101</v>
       </c>
@@ -30352,7 +30355,7 @@
       <c r="K846" s="2"/>
       <c r="L846" s="2"/>
     </row>
-    <row r="847" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" s="2" t="s">
         <v>101</v>
       </c>
@@ -30416,7 +30419,7 @@
       <c r="K848" s="2"/>
       <c r="L848" s="2"/>
     </row>
-    <row r="849" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" s="2" t="s">
         <v>101</v>
       </c>
@@ -30480,7 +30483,7 @@
       <c r="K850" s="2"/>
       <c r="L850" s="2"/>
     </row>
-    <row r="851" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" s="2" t="s">
         <v>270</v>
       </c>
@@ -30512,7 +30515,7 @@
       <c r="K851" s="2"/>
       <c r="L851" s="2"/>
     </row>
-    <row r="852" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" s="2" t="s">
         <v>270</v>
       </c>
@@ -30544,7 +30547,7 @@
       <c r="K852" s="2"/>
       <c r="L852" s="2"/>
     </row>
-    <row r="853" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" s="2" t="s">
         <v>270</v>
       </c>
@@ -30576,7 +30579,7 @@
       <c r="K853" s="2"/>
       <c r="L853" s="2"/>
     </row>
-    <row r="854" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" s="2" t="s">
         <v>270</v>
       </c>
@@ -30608,7 +30611,7 @@
       <c r="K854" s="2"/>
       <c r="L854" s="2"/>
     </row>
-    <row r="855" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" s="2" t="s">
         <v>270</v>
       </c>
@@ -30640,7 +30643,7 @@
       <c r="K855" s="2"/>
       <c r="L855" s="2"/>
     </row>
-    <row r="856" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" s="2" t="s">
         <v>270</v>
       </c>
@@ -30672,7 +30675,7 @@
       <c r="K856" s="2"/>
       <c r="L856" s="2"/>
     </row>
-    <row r="857" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" s="2" t="s">
         <v>270</v>
       </c>
@@ -30704,7 +30707,7 @@
       <c r="K857" s="2"/>
       <c r="L857" s="2"/>
     </row>
-    <row r="858" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" s="2" t="s">
         <v>270</v>
       </c>
@@ -30736,7 +30739,7 @@
       <c r="K858" s="2"/>
       <c r="L858" s="2"/>
     </row>
-    <row r="859" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" s="2" t="s">
         <v>270</v>
       </c>
@@ -30768,7 +30771,7 @@
       <c r="K859" s="2"/>
       <c r="L859" s="2"/>
     </row>
-    <row r="860" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" s="2" t="s">
         <v>270</v>
       </c>
@@ -30800,7 +30803,7 @@
       <c r="K860" s="2"/>
       <c r="L860" s="2"/>
     </row>
-    <row r="861" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" s="2" t="s">
         <v>270</v>
       </c>
@@ -30832,7 +30835,7 @@
       <c r="K861" s="2"/>
       <c r="L861" s="2"/>
     </row>
-    <row r="862" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" s="2" t="s">
         <v>270</v>
       </c>
@@ -30864,7 +30867,7 @@
       <c r="K862" s="2"/>
       <c r="L862" s="2"/>
     </row>
-    <row r="863" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" s="2" t="s">
         <v>270</v>
       </c>
@@ -30896,7 +30899,7 @@
       <c r="K863" s="2"/>
       <c r="L863" s="2"/>
     </row>
-    <row r="864" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" s="2" t="s">
         <v>270</v>
       </c>
@@ -30928,7 +30931,7 @@
       <c r="K864" s="2"/>
       <c r="L864" s="2"/>
     </row>
-    <row r="865" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" s="2" t="s">
         <v>270</v>
       </c>
@@ -30960,7 +30963,7 @@
       <c r="K865" s="2"/>
       <c r="L865" s="2"/>
     </row>
-    <row r="866" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" s="2" t="s">
         <v>270</v>
       </c>
@@ -30992,7 +30995,7 @@
       <c r="K866" s="2"/>
       <c r="L866" s="2"/>
     </row>
-    <row r="867" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" s="2" t="s">
         <v>270</v>
       </c>
@@ -31024,7 +31027,7 @@
       <c r="K867" s="2"/>
       <c r="L867" s="2"/>
     </row>
-    <row r="868" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" s="2" t="s">
         <v>270</v>
       </c>
@@ -31056,7 +31059,7 @@
       <c r="K868" s="2"/>
       <c r="L868" s="2"/>
     </row>
-    <row r="869" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" s="2" t="s">
         <v>270</v>
       </c>
@@ -31088,7 +31091,7 @@
       <c r="K869" s="2"/>
       <c r="L869" s="2"/>
     </row>
-    <row r="870" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" s="2" t="s">
         <v>270</v>
       </c>
@@ -31124,7 +31127,7 @@
       </c>
       <c r="L870" s="2"/>
     </row>
-    <row r="871" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" s="2" t="s">
         <v>270</v>
       </c>
@@ -31160,7 +31163,7 @@
       </c>
       <c r="L871" s="2"/>
     </row>
-    <row r="872" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" s="2" t="s">
         <v>270</v>
       </c>
@@ -31196,7 +31199,7 @@
       </c>
       <c r="L872" s="2"/>
     </row>
-    <row r="873" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" s="2" t="s">
         <v>270</v>
       </c>
@@ -31232,7 +31235,7 @@
       </c>
       <c r="L873" s="2"/>
     </row>
-    <row r="874" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" s="2" t="s">
         <v>270</v>
       </c>
@@ -31268,7 +31271,7 @@
       </c>
       <c r="L874" s="2"/>
     </row>
-    <row r="875" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" s="2" t="s">
         <v>270</v>
       </c>
@@ -31304,7 +31307,7 @@
       </c>
       <c r="L875" s="2"/>
     </row>
-    <row r="876" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" s="2" t="s">
         <v>270</v>
       </c>
@@ -31340,7 +31343,7 @@
       </c>
       <c r="L876" s="2"/>
     </row>
-    <row r="877" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" s="2" t="s">
         <v>270</v>
       </c>
@@ -31376,7 +31379,7 @@
       </c>
       <c r="L877" s="2"/>
     </row>
-    <row r="878" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" s="2" t="s">
         <v>270</v>
       </c>
@@ -31412,7 +31415,7 @@
       </c>
       <c r="L878" s="2"/>
     </row>
-    <row r="879" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" s="2" t="s">
         <v>270</v>
       </c>
@@ -31448,7 +31451,7 @@
       </c>
       <c r="L879" s="2"/>
     </row>
-    <row r="880" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" s="2" t="s">
         <v>270</v>
       </c>
@@ -31484,7 +31487,7 @@
       </c>
       <c r="L880" s="2"/>
     </row>
-    <row r="881" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" s="2" t="s">
         <v>270</v>
       </c>
@@ -31520,7 +31523,7 @@
       </c>
       <c r="L881" s="2"/>
     </row>
-    <row r="882" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" s="2" t="s">
         <v>270</v>
       </c>
@@ -31550,7 +31553,7 @@
       <c r="K882" s="2"/>
       <c r="L882" s="2"/>
     </row>
-    <row r="883" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" s="2" t="s">
         <v>270</v>
       </c>
@@ -31578,7 +31581,7 @@
       <c r="K883" s="2"/>
       <c r="L883" s="2"/>
     </row>
-    <row r="884" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" s="2" t="s">
         <v>270</v>
       </c>
@@ -31614,7 +31617,7 @@
       </c>
       <c r="L884" s="2"/>
     </row>
-    <row r="885" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" s="2" t="s">
         <v>270</v>
       </c>
@@ -31650,7 +31653,7 @@
       </c>
       <c r="L885" s="2"/>
     </row>
-    <row r="886" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" s="2" t="s">
         <v>270</v>
       </c>
@@ -31682,7 +31685,7 @@
       <c r="K886" s="2"/>
       <c r="L886" s="2"/>
     </row>
-    <row r="887" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" s="2" t="s">
         <v>629</v>
       </c>
@@ -31710,7 +31713,7 @@
       <c r="K887" s="2"/>
       <c r="L887" s="2"/>
     </row>
-    <row r="888" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" s="2" t="s">
         <v>629</v>
       </c>
@@ -31742,7 +31745,7 @@
       <c r="K888" s="2"/>
       <c r="L888" s="2"/>
     </row>
-    <row r="889" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" s="2" t="s">
         <v>629</v>
       </c>
@@ -31774,7 +31777,7 @@
       <c r="K889" s="2"/>
       <c r="L889" s="2"/>
     </row>
-    <row r="890" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" s="2" t="s">
         <v>629</v>
       </c>
@@ -31806,7 +31809,7 @@
       <c r="K890" s="2"/>
       <c r="L890" s="2"/>
     </row>
-    <row r="891" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" s="2" t="s">
         <v>629</v>
       </c>
@@ -31838,7 +31841,7 @@
       <c r="K891" s="2"/>
       <c r="L891" s="2"/>
     </row>
-    <row r="892" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" s="2" t="s">
         <v>186</v>
       </c>
@@ -31870,7 +31873,7 @@
       <c r="K892" s="2"/>
       <c r="L892" s="2"/>
     </row>
-    <row r="893" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" s="2" t="s">
         <v>186</v>
       </c>
@@ -31902,7 +31905,7 @@
       <c r="K893" s="2"/>
       <c r="L893" s="2"/>
     </row>
-    <row r="894" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" s="2" t="s">
         <v>186</v>
       </c>
@@ -31934,7 +31937,7 @@
       <c r="K894" s="2"/>
       <c r="L894" s="2"/>
     </row>
-    <row r="895" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" s="2" t="s">
         <v>186</v>
       </c>
@@ -31966,7 +31969,7 @@
       <c r="K895" s="2"/>
       <c r="L895" s="2"/>
     </row>
-    <row r="896" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" s="2" t="s">
         <v>186</v>
       </c>
@@ -31998,7 +32001,7 @@
       <c r="K896" s="2"/>
       <c r="L896" s="2"/>
     </row>
-    <row r="897" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" s="2" t="s">
         <v>186</v>
       </c>
@@ -32030,7 +32033,7 @@
       <c r="K897" s="2"/>
       <c r="L897" s="2"/>
     </row>
-    <row r="898" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" s="2" t="s">
         <v>186</v>
       </c>
@@ -32062,7 +32065,7 @@
       <c r="K898" s="2"/>
       <c r="L898" s="2"/>
     </row>
-    <row r="899" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" s="2" t="s">
         <v>186</v>
       </c>
@@ -32092,7 +32095,7 @@
       <c r="K899" s="2"/>
       <c r="L899" s="2"/>
     </row>
-    <row r="900" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" s="2" t="s">
         <v>186</v>
       </c>
@@ -32122,7 +32125,7 @@
       <c r="K900" s="2"/>
       <c r="L900" s="2"/>
     </row>
-    <row r="901" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" s="2" t="s">
         <v>186</v>
       </c>
@@ -32150,7 +32153,7 @@
       <c r="K901" s="2"/>
       <c r="L901" s="2"/>
     </row>
-    <row r="902" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" s="2" t="s">
         <v>290</v>
       </c>
@@ -32182,7 +32185,7 @@
       <c r="K902" s="2"/>
       <c r="L902" s="2"/>
     </row>
-    <row r="903" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" s="2" t="s">
         <v>290</v>
       </c>
@@ -32214,7 +32217,7 @@
       <c r="K903" s="2"/>
       <c r="L903" s="2"/>
     </row>
-    <row r="904" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904" s="2" t="s">
         <v>290</v>
       </c>
@@ -32246,7 +32249,7 @@
       <c r="K904" s="2"/>
       <c r="L904" s="2"/>
     </row>
-    <row r="905" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" s="2" t="s">
         <v>290</v>
       </c>
@@ -32278,7 +32281,7 @@
       <c r="K905" s="2"/>
       <c r="L905" s="2"/>
     </row>
-    <row r="906" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906" s="2" t="s">
         <v>290</v>
       </c>
@@ -32310,7 +32313,7 @@
       <c r="K906" s="2"/>
       <c r="L906" s="2"/>
     </row>
-    <row r="907" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" s="2" t="s">
         <v>290</v>
       </c>
@@ -32342,7 +32345,7 @@
       <c r="K907" s="2"/>
       <c r="L907" s="2"/>
     </row>
-    <row r="908" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908" s="2" t="s">
         <v>290</v>
       </c>
@@ -32370,7 +32373,7 @@
       <c r="K908" s="2"/>
       <c r="L908" s="2"/>
     </row>
-    <row r="909" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" s="2" t="s">
         <v>290</v>
       </c>
@@ -32400,7 +32403,7 @@
       <c r="K909" s="2"/>
       <c r="L909" s="2"/>
     </row>
-    <row r="910" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910" s="2" t="s">
         <v>290</v>
       </c>
@@ -32432,7 +32435,7 @@
       <c r="K910" s="2"/>
       <c r="L910" s="2"/>
     </row>
-    <row r="911" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911" s="2" t="s">
         <v>290</v>
       </c>
@@ -32464,7 +32467,7 @@
       <c r="K911" s="2"/>
       <c r="L911" s="2"/>
     </row>
-    <row r="912" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912" s="2" t="s">
         <v>290</v>
       </c>
@@ -32496,7 +32499,7 @@
       <c r="K912" s="2"/>
       <c r="L912" s="2"/>
     </row>
-    <row r="913" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A913" s="2" t="s">
         <v>290</v>
       </c>
@@ -32528,7 +32531,7 @@
       <c r="K913" s="2"/>
       <c r="L913" s="2"/>
     </row>
-    <row r="914" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" s="2" t="s">
         <v>290</v>
       </c>
@@ -32560,7 +32563,7 @@
       <c r="K914" s="2"/>
       <c r="L914" s="2"/>
     </row>
-    <row r="915" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" s="2" t="s">
         <v>290</v>
       </c>
@@ -32592,7 +32595,7 @@
       <c r="K915" s="2"/>
       <c r="L915" s="2"/>
     </row>
-    <row r="916" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" s="2" t="s">
         <v>290</v>
       </c>
@@ -32624,7 +32627,7 @@
       <c r="K916" s="2"/>
       <c r="L916" s="2"/>
     </row>
-    <row r="917" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" s="2" t="s">
         <v>290</v>
       </c>
@@ -32656,7 +32659,7 @@
       <c r="K917" s="2"/>
       <c r="L917" s="2"/>
     </row>
-    <row r="918" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918" s="2" t="s">
         <v>290</v>
       </c>
@@ -32688,7 +32691,7 @@
       <c r="K918" s="2"/>
       <c r="L918" s="2"/>
     </row>
-    <row r="919" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919" s="2" t="s">
         <v>290</v>
       </c>
@@ -32752,7 +32755,7 @@
       <c r="K920" s="2"/>
       <c r="L920" s="2"/>
     </row>
-    <row r="921" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A921" s="2" t="s">
         <v>290</v>
       </c>
@@ -32784,7 +32787,7 @@
       <c r="K921" s="2"/>
       <c r="L921" s="2"/>
     </row>
-    <row r="922" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A922" s="2" t="s">
         <v>290</v>
       </c>
@@ -32816,7 +32819,7 @@
       <c r="K922" s="2"/>
       <c r="L922" s="2"/>
     </row>
-    <row r="923" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A923" s="2" t="s">
         <v>290</v>
       </c>
@@ -32846,7 +32849,7 @@
       <c r="K923" s="2"/>
       <c r="L923" s="2"/>
     </row>
-    <row r="924" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A924" s="2" t="s">
         <v>290</v>
       </c>
@@ -32878,7 +32881,7 @@
       <c r="K924" s="2"/>
       <c r="L924" s="2"/>
     </row>
-    <row r="925" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A925" s="2" t="s">
         <v>290</v>
       </c>
@@ -32910,7 +32913,7 @@
       <c r="K925" s="2"/>
       <c r="L925" s="2"/>
     </row>
-    <row r="926" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926" s="2" t="s">
         <v>290</v>
       </c>
@@ -32942,7 +32945,7 @@
       <c r="K926" s="2"/>
       <c r="L926" s="2"/>
     </row>
-    <row r="927" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" s="2" t="s">
         <v>290</v>
       </c>
@@ -32974,7 +32977,7 @@
       <c r="K927" s="2"/>
       <c r="L927" s="2"/>
     </row>
-    <row r="928" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" s="2" t="s">
         <v>290</v>
       </c>
@@ -33006,7 +33009,7 @@
       <c r="K928" s="2"/>
       <c r="L928" s="2"/>
     </row>
-    <row r="929" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A929" s="2" t="s">
         <v>290</v>
       </c>
@@ -33038,7 +33041,7 @@
       <c r="K929" s="2"/>
       <c r="L929" s="2"/>
     </row>
-    <row r="930" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A930" s="2" t="s">
         <v>290</v>
       </c>
@@ -33070,7 +33073,7 @@
       <c r="K930" s="2"/>
       <c r="L930" s="2"/>
     </row>
-    <row r="931" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A931" s="2" t="s">
         <v>290</v>
       </c>
@@ -33102,7 +33105,7 @@
       <c r="K931" s="2"/>
       <c r="L931" s="2"/>
     </row>
-    <row r="932" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A932" s="2" t="s">
         <v>290</v>
       </c>
@@ -33134,7 +33137,7 @@
       <c r="K932" s="2"/>
       <c r="L932" s="2"/>
     </row>
-    <row r="933" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A933" s="2" t="s">
         <v>290</v>
       </c>
@@ -33166,7 +33169,7 @@
       <c r="K933" s="2"/>
       <c r="L933" s="2"/>
     </row>
-    <row r="934" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A934" s="2" t="s">
         <v>290</v>
       </c>
@@ -33198,7 +33201,7 @@
       <c r="K934" s="2"/>
       <c r="L934" s="2"/>
     </row>
-    <row r="935" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A935" s="2" t="s">
         <v>290</v>
       </c>
@@ -33262,7 +33265,7 @@
       <c r="K936" s="2"/>
       <c r="L936" s="2"/>
     </row>
-    <row r="937" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A937" s="2" t="s">
         <v>290</v>
       </c>
@@ -33294,7 +33297,7 @@
       <c r="K937" s="2"/>
       <c r="L937" s="2"/>
     </row>
-    <row r="938" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" s="2" t="s">
         <v>290</v>
       </c>
@@ -33326,7 +33329,7 @@
       <c r="K938" s="2"/>
       <c r="L938" s="2"/>
     </row>
-    <row r="939" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A939" s="2" t="s">
         <v>290</v>
       </c>
@@ -33356,7 +33359,7 @@
       <c r="K939" s="2"/>
       <c r="L939" s="2"/>
     </row>
-    <row r="940" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A940" s="2" t="s">
         <v>290</v>
       </c>
@@ -33388,7 +33391,7 @@
       <c r="K940" s="2"/>
       <c r="L940" s="2"/>
     </row>
-    <row r="941" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A941" s="2" t="s">
         <v>290</v>
       </c>
@@ -33420,7 +33423,7 @@
       <c r="K941" s="2"/>
       <c r="L941" s="2"/>
     </row>
-    <row r="942" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" s="2" t="s">
         <v>290</v>
       </c>
@@ -33452,7 +33455,7 @@
       <c r="K942" s="2"/>
       <c r="L942" s="2"/>
     </row>
-    <row r="943" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A943" s="2" t="s">
         <v>290</v>
       </c>
@@ -33484,7 +33487,7 @@
       <c r="K943" s="2"/>
       <c r="L943" s="2"/>
     </row>
-    <row r="944" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A944" s="2" t="s">
         <v>290</v>
       </c>
@@ -33516,7 +33519,7 @@
       <c r="K944" s="2"/>
       <c r="L944" s="2"/>
     </row>
-    <row r="945" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A945" s="2" t="s">
         <v>290</v>
       </c>
@@ -33548,7 +33551,7 @@
       <c r="K945" s="2"/>
       <c r="L945" s="2"/>
     </row>
-    <row r="946" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A946" s="2" t="s">
         <v>290</v>
       </c>
@@ -33580,7 +33583,7 @@
       <c r="K946" s="2"/>
       <c r="L946" s="2"/>
     </row>
-    <row r="947" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A947" s="2" t="s">
         <v>290</v>
       </c>
@@ -33612,7 +33615,7 @@
       <c r="K947" s="2"/>
       <c r="L947" s="2"/>
     </row>
-    <row r="948" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A948" s="2" t="s">
         <v>290</v>
       </c>
@@ -33644,7 +33647,7 @@
       <c r="K948" s="2"/>
       <c r="L948" s="2"/>
     </row>
-    <row r="949" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A949" s="2" t="s">
         <v>290</v>
       </c>
@@ -33676,7 +33679,7 @@
       <c r="K949" s="2"/>
       <c r="L949" s="2"/>
     </row>
-    <row r="950" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A950" s="2" t="s">
         <v>290</v>
       </c>
@@ -33708,7 +33711,7 @@
       <c r="K950" s="2"/>
       <c r="L950" s="2"/>
     </row>
-    <row r="951" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A951" s="2" t="s">
         <v>290</v>
       </c>
@@ -33772,7 +33775,7 @@
       <c r="K952" s="2"/>
       <c r="L952" s="2"/>
     </row>
-    <row r="953" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A953" s="2" t="s">
         <v>290</v>
       </c>
@@ -33804,7 +33807,7 @@
       <c r="K953" s="2"/>
       <c r="L953" s="2"/>
     </row>
-    <row r="954" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A954" s="2" t="s">
         <v>290</v>
       </c>
@@ -33836,7 +33839,7 @@
       <c r="K954" s="2"/>
       <c r="L954" s="2"/>
     </row>
-    <row r="955" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A955" s="2" t="s">
         <v>290</v>
       </c>
@@ -33866,7 +33869,7 @@
       <c r="K955" s="2"/>
       <c r="L955" s="2"/>
     </row>
-    <row r="956" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A956" s="2" t="s">
         <v>290</v>
       </c>
@@ -33898,7 +33901,7 @@
       <c r="K956" s="2"/>
       <c r="L956" s="2"/>
     </row>
-    <row r="957" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A957" s="2" t="s">
         <v>290</v>
       </c>
@@ -33930,7 +33933,7 @@
       <c r="K957" s="2"/>
       <c r="L957" s="2"/>
     </row>
-    <row r="958" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A958" s="2" t="s">
         <v>290</v>
       </c>
@@ -33962,7 +33965,7 @@
       <c r="K958" s="2"/>
       <c r="L958" s="2"/>
     </row>
-    <row r="959" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A959" s="2" t="s">
         <v>290</v>
       </c>
@@ -33994,7 +33997,7 @@
       <c r="K959" s="2"/>
       <c r="L959" s="2"/>
     </row>
-    <row r="960" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A960" s="2" t="s">
         <v>290</v>
       </c>
@@ -34026,7 +34029,7 @@
       <c r="K960" s="2"/>
       <c r="L960" s="2"/>
     </row>
-    <row r="961" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A961" s="2" t="s">
         <v>290</v>
       </c>
@@ -34058,7 +34061,7 @@
       <c r="K961" s="2"/>
       <c r="L961" s="2"/>
     </row>
-    <row r="962" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A962" s="2" t="s">
         <v>290</v>
       </c>
@@ -34090,7 +34093,7 @@
       <c r="K962" s="2"/>
       <c r="L962" s="2"/>
     </row>
-    <row r="963" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963" s="2" t="s">
         <v>290</v>
       </c>
@@ -34122,7 +34125,7 @@
       <c r="K963" s="2"/>
       <c r="L963" s="2"/>
     </row>
-    <row r="964" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A964" s="2" t="s">
         <v>290</v>
       </c>
@@ -34154,7 +34157,7 @@
       <c r="K964" s="2"/>
       <c r="L964" s="2"/>
     </row>
-    <row r="965" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965" s="2" t="s">
         <v>290</v>
       </c>
@@ -34186,7 +34189,7 @@
       <c r="K965" s="2"/>
       <c r="L965" s="2"/>
     </row>
-    <row r="966" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A966" s="2" t="s">
         <v>290</v>
       </c>
@@ -34218,7 +34221,7 @@
       <c r="K966" s="2"/>
       <c r="L966" s="2"/>
     </row>
-    <row r="967" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A967" s="2" t="s">
         <v>290</v>
       </c>
@@ -34282,7 +34285,7 @@
       <c r="K968" s="2"/>
       <c r="L968" s="2"/>
     </row>
-    <row r="969" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A969" s="2" t="s">
         <v>290</v>
       </c>
@@ -34314,7 +34317,7 @@
       <c r="K969" s="2"/>
       <c r="L969" s="2"/>
     </row>
-    <row r="970" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A970" s="2" t="s">
         <v>290</v>
       </c>
@@ -34346,7 +34349,7 @@
       <c r="K970" s="2"/>
       <c r="L970" s="2"/>
     </row>
-    <row r="971" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A971" s="2" t="s">
         <v>290</v>
       </c>
@@ -34376,7 +34379,7 @@
       <c r="K971" s="2"/>
       <c r="L971" s="2"/>
     </row>
-    <row r="972" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A972" s="2" t="s">
         <v>290</v>
       </c>
@@ -34408,7 +34411,7 @@
       <c r="K972" s="2"/>
       <c r="L972" s="2"/>
     </row>
-    <row r="973" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A973" s="2" t="s">
         <v>290</v>
       </c>
@@ -34440,7 +34443,7 @@
       <c r="K973" s="2"/>
       <c r="L973" s="2"/>
     </row>
-    <row r="974" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A974" s="2" t="s">
         <v>290</v>
       </c>
@@ -34472,7 +34475,7 @@
       <c r="K974" s="2"/>
       <c r="L974" s="2"/>
     </row>
-    <row r="975" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A975" s="2" t="s">
         <v>290</v>
       </c>
@@ -34504,7 +34507,7 @@
       <c r="K975" s="2"/>
       <c r="L975" s="2"/>
     </row>
-    <row r="976" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A976" s="2" t="s">
         <v>290</v>
       </c>
@@ -34536,7 +34539,7 @@
       <c r="K976" s="2"/>
       <c r="L976" s="2"/>
     </row>
-    <row r="977" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A977" s="2" t="s">
         <v>290</v>
       </c>
@@ -34568,7 +34571,7 @@
       <c r="K977" s="2"/>
       <c r="L977" s="2"/>
     </row>
-    <row r="978" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A978" s="2" t="s">
         <v>290</v>
       </c>
@@ -34600,7 +34603,7 @@
       <c r="K978" s="2"/>
       <c r="L978" s="2"/>
     </row>
-    <row r="979" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A979" s="2" t="s">
         <v>290</v>
       </c>
@@ -34632,7 +34635,7 @@
       <c r="K979" s="2"/>
       <c r="L979" s="2"/>
     </row>
-    <row r="980" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A980" s="2" t="s">
         <v>290</v>
       </c>
@@ -34664,7 +34667,7 @@
       <c r="K980" s="2"/>
       <c r="L980" s="2"/>
     </row>
-    <row r="981" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A981" s="2" t="s">
         <v>290</v>
       </c>
@@ -34696,7 +34699,7 @@
       <c r="K981" s="2"/>
       <c r="L981" s="2"/>
     </row>
-    <row r="982" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A982" s="2" t="s">
         <v>290</v>
       </c>
@@ -34728,7 +34731,7 @@
       <c r="K982" s="2"/>
       <c r="L982" s="2"/>
     </row>
-    <row r="983" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A983" s="2" t="s">
         <v>290</v>
       </c>
@@ -34792,7 +34795,7 @@
       <c r="K984" s="2"/>
       <c r="L984" s="2"/>
     </row>
-    <row r="985" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A985" s="2" t="s">
         <v>290</v>
       </c>
@@ -34824,7 +34827,7 @@
       <c r="K985" s="2"/>
       <c r="L985" s="2"/>
     </row>
-    <row r="986" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A986" s="2" t="s">
         <v>290</v>
       </c>
@@ -34856,7 +34859,7 @@
       <c r="K986" s="2"/>
       <c r="L986" s="2"/>
     </row>
-    <row r="987" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A987" s="2" t="s">
         <v>290</v>
       </c>
@@ -34886,7 +34889,7 @@
       <c r="K987" s="2"/>
       <c r="L987" s="2"/>
     </row>
-    <row r="988" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A988" s="2" t="s">
         <v>290</v>
       </c>
@@ -34918,7 +34921,7 @@
       <c r="K988" s="2"/>
       <c r="L988" s="2"/>
     </row>
-    <row r="989" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A989" s="2" t="s">
         <v>290</v>
       </c>
@@ -34950,7 +34953,7 @@
       <c r="K989" s="2"/>
       <c r="L989" s="2"/>
     </row>
-    <row r="990" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A990" s="2" t="s">
         <v>290</v>
       </c>
@@ -34980,7 +34983,7 @@
       <c r="K990" s="2"/>
       <c r="L990" s="2"/>
     </row>
-    <row r="991" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A991" s="2" t="s">
         <v>103</v>
       </c>
@@ -35012,7 +35015,7 @@
       <c r="K991" s="2"/>
       <c r="L991" s="2"/>
     </row>
-    <row r="992" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A992" s="2" t="s">
         <v>103</v>
       </c>
@@ -35044,7 +35047,7 @@
       <c r="K992" s="2"/>
       <c r="L992" s="2"/>
     </row>
-    <row r="993" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A993" s="2" t="s">
         <v>103</v>
       </c>
@@ -35076,7 +35079,7 @@
       <c r="K993" s="2"/>
       <c r="L993" s="2"/>
     </row>
-    <row r="994" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A994" s="2" t="s">
         <v>103</v>
       </c>
@@ -35108,7 +35111,7 @@
       <c r="K994" s="2"/>
       <c r="L994" s="2"/>
     </row>
-    <row r="995" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A995" s="2" t="s">
         <v>103</v>
       </c>
@@ -35140,7 +35143,7 @@
       <c r="K995" s="2"/>
       <c r="L995" s="2"/>
     </row>
-    <row r="996" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A996" s="2" t="s">
         <v>103</v>
       </c>
@@ -35172,7 +35175,7 @@
       <c r="K996" s="2"/>
       <c r="L996" s="2"/>
     </row>
-    <row r="997" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A997" s="2" t="s">
         <v>103</v>
       </c>
@@ -35204,7 +35207,7 @@
       <c r="K997" s="2"/>
       <c r="L997" s="2"/>
     </row>
-    <row r="998" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A998" s="2" t="s">
         <v>103</v>
       </c>
@@ -35236,7 +35239,7 @@
       <c r="K998" s="2"/>
       <c r="L998" s="2"/>
     </row>
-    <row r="999" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A999" s="2" t="s">
         <v>103</v>
       </c>
@@ -35268,7 +35271,7 @@
       <c r="K999" s="2"/>
       <c r="L999" s="2"/>
     </row>
-    <row r="1000" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="2" t="s">
         <v>103</v>
       </c>
@@ -35300,7 +35303,7 @@
       <c r="K1000" s="2"/>
       <c r="L1000" s="2"/>
     </row>
-    <row r="1001" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="2" t="s">
         <v>103</v>
       </c>
@@ -35332,7 +35335,7 @@
       <c r="K1001" s="2"/>
       <c r="L1001" s="2"/>
     </row>
-    <row r="1002" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1002" s="2" t="s">
         <v>103</v>
       </c>
@@ -35364,7 +35367,7 @@
       <c r="K1002" s="2"/>
       <c r="L1002" s="2"/>
     </row>
-    <row r="1003" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1003" s="2" t="s">
         <v>103</v>
       </c>
@@ -35396,7 +35399,7 @@
       <c r="K1003" s="2"/>
       <c r="L1003" s="2"/>
     </row>
-    <row r="1004" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="2" t="s">
         <v>103</v>
       </c>
@@ -35428,7 +35431,7 @@
       <c r="K1004" s="2"/>
       <c r="L1004" s="2"/>
     </row>
-    <row r="1005" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1005" s="2" t="s">
         <v>103</v>
       </c>
@@ -35460,7 +35463,7 @@
       <c r="K1005" s="2"/>
       <c r="L1005" s="2"/>
     </row>
-    <row r="1006" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="2" t="s">
         <v>103</v>
       </c>
@@ -35492,7 +35495,7 @@
       <c r="K1006" s="2"/>
       <c r="L1006" s="2"/>
     </row>
-    <row r="1007" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1007" s="2" t="s">
         <v>103</v>
       </c>
@@ -35524,7 +35527,7 @@
       <c r="K1007" s="2"/>
       <c r="L1007" s="2"/>
     </row>
-    <row r="1008" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1008" s="2" t="s">
         <v>103</v>
       </c>
@@ -35556,7 +35559,7 @@
       <c r="K1008" s="2"/>
       <c r="L1008" s="2"/>
     </row>
-    <row r="1009" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1009" s="2" t="s">
         <v>103</v>
       </c>
@@ -35588,7 +35591,7 @@
       <c r="K1009" s="2"/>
       <c r="L1009" s="2"/>
     </row>
-    <row r="1010" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1010" s="2" t="s">
         <v>103</v>
       </c>
@@ -35620,7 +35623,7 @@
       <c r="K1010" s="2"/>
       <c r="L1010" s="2"/>
     </row>
-    <row r="1011" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1011" s="2" t="s">
         <v>103</v>
       </c>
@@ -35652,7 +35655,7 @@
       <c r="K1011" s="2"/>
       <c r="L1011" s="2"/>
     </row>
-    <row r="1012" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1012" s="2" t="s">
         <v>103</v>
       </c>
@@ -35684,7 +35687,7 @@
       <c r="K1012" s="2"/>
       <c r="L1012" s="2"/>
     </row>
-    <row r="1013" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1013" s="2" t="s">
         <v>103</v>
       </c>
@@ -35716,7 +35719,7 @@
       <c r="K1013" s="2"/>
       <c r="L1013" s="2"/>
     </row>
-    <row r="1014" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1014" s="2" t="s">
         <v>103</v>
       </c>
@@ -35746,7 +35749,7 @@
       <c r="K1014" s="2"/>
       <c r="L1014" s="2"/>
     </row>
-    <row r="1015" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1015" s="2" t="s">
         <v>103</v>
       </c>
@@ -35776,7 +35779,7 @@
       <c r="K1015" s="2"/>
       <c r="L1015" s="2"/>
     </row>
-    <row r="1016" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1016" s="2" t="s">
         <v>103</v>
       </c>
@@ -35806,7 +35809,7 @@
       <c r="K1016" s="2"/>
       <c r="L1016" s="2"/>
     </row>
-    <row r="1017" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1017" s="2" t="s">
         <v>103</v>
       </c>
@@ -35836,7 +35839,7 @@
       <c r="K1017" s="2"/>
       <c r="L1017" s="2"/>
     </row>
-    <row r="1018" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1018" s="2" t="s">
         <v>103</v>
       </c>
@@ -35866,7 +35869,7 @@
       <c r="K1018" s="2"/>
       <c r="L1018" s="2"/>
     </row>
-    <row r="1019" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1019" s="2" t="s">
         <v>103</v>
       </c>
@@ -35896,7 +35899,7 @@
       <c r="K1019" s="2"/>
       <c r="L1019" s="2"/>
     </row>
-    <row r="1020" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1020" s="2" t="s">
         <v>103</v>
       </c>
@@ -35926,7 +35929,7 @@
       <c r="K1020" s="2"/>
       <c r="L1020" s="2"/>
     </row>
-    <row r="1021" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1021" s="2" t="s">
         <v>103</v>
       </c>
@@ -35956,7 +35959,7 @@
       <c r="K1021" s="2"/>
       <c r="L1021" s="2"/>
     </row>
-    <row r="1022" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1022" s="2" t="s">
         <v>103</v>
       </c>
@@ -35986,7 +35989,7 @@
       <c r="K1022" s="2"/>
       <c r="L1022" s="2"/>
     </row>
-    <row r="1023" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1023" s="2" t="s">
         <v>103</v>
       </c>
@@ -36016,7 +36019,7 @@
       <c r="K1023" s="2"/>
       <c r="L1023" s="2"/>
     </row>
-    <row r="1024" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1024" s="2" t="s">
         <v>103</v>
       </c>
@@ -36046,7 +36049,7 @@
       <c r="K1024" s="2"/>
       <c r="L1024" s="2"/>
     </row>
-    <row r="1025" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1025" s="2" t="s">
         <v>103</v>
       </c>
@@ -36076,7 +36079,7 @@
       <c r="K1025" s="2"/>
       <c r="L1025" s="2"/>
     </row>
-    <row r="1026" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1026" s="2" t="s">
         <v>103</v>
       </c>
@@ -36106,7 +36109,7 @@
       <c r="K1026" s="2"/>
       <c r="L1026" s="2"/>
     </row>
-    <row r="1027" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1027" s="2" t="s">
         <v>103</v>
       </c>
@@ -36136,7 +36139,7 @@
       <c r="K1027" s="2"/>
       <c r="L1027" s="2"/>
     </row>
-    <row r="1028" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1028" s="2" t="s">
         <v>103</v>
       </c>
@@ -36166,7 +36169,7 @@
       <c r="K1028" s="2"/>
       <c r="L1028" s="2"/>
     </row>
-    <row r="1029" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1029" s="2" t="s">
         <v>103</v>
       </c>
@@ -36196,7 +36199,7 @@
       <c r="K1029" s="2"/>
       <c r="L1029" s="2"/>
     </row>
-    <row r="1030" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1030" s="2" t="s">
         <v>103</v>
       </c>
@@ -36226,7 +36229,7 @@
       <c r="K1030" s="2"/>
       <c r="L1030" s="2"/>
     </row>
-    <row r="1031" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1031" s="2" t="s">
         <v>103</v>
       </c>
@@ -36258,7 +36261,7 @@
       <c r="K1031" s="2"/>
       <c r="L1031" s="2"/>
     </row>
-    <row r="1032" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1032" s="2" t="s">
         <v>103</v>
       </c>
@@ -36290,7 +36293,7 @@
       <c r="K1032" s="2"/>
       <c r="L1032" s="2"/>
     </row>
-    <row r="1033" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1033" s="2" t="s">
         <v>103</v>
       </c>
@@ -36322,7 +36325,7 @@
       <c r="K1033" s="2"/>
       <c r="L1033" s="2"/>
     </row>
-    <row r="1034" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1034" s="2" t="s">
         <v>103</v>
       </c>
@@ -36354,7 +36357,7 @@
       <c r="K1034" s="2"/>
       <c r="L1034" s="2"/>
     </row>
-    <row r="1035" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1035" s="2" t="s">
         <v>103</v>
       </c>
@@ -36386,7 +36389,7 @@
       <c r="K1035" s="2"/>
       <c r="L1035" s="2"/>
     </row>
-    <row r="1036" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1036" s="2" t="s">
         <v>103</v>
       </c>
@@ -36418,7 +36421,7 @@
       <c r="K1036" s="2"/>
       <c r="L1036" s="2"/>
     </row>
-    <row r="1037" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1037" s="2" t="s">
         <v>103</v>
       </c>
@@ -36450,7 +36453,7 @@
       <c r="K1037" s="2"/>
       <c r="L1037" s="2"/>
     </row>
-    <row r="1038" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1038" s="2" t="s">
         <v>103</v>
       </c>
@@ -36482,7 +36485,7 @@
       <c r="K1038" s="2"/>
       <c r="L1038" s="2"/>
     </row>
-    <row r="1039" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1039" s="2" t="s">
         <v>103</v>
       </c>
@@ -36512,7 +36515,7 @@
       <c r="K1039" s="2"/>
       <c r="L1039" s="2"/>
     </row>
-    <row r="1040" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1040" s="2" t="s">
         <v>105</v>
       </c>
@@ -36544,7 +36547,7 @@
       <c r="K1040" s="2"/>
       <c r="L1040" s="2"/>
     </row>
-    <row r="1041" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1041" s="2" t="s">
         <v>105</v>
       </c>
@@ -36576,7 +36579,7 @@
       <c r="K1041" s="2"/>
       <c r="L1041" s="2"/>
     </row>
-    <row r="1042" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1042" s="2" t="s">
         <v>105</v>
       </c>
@@ -36608,7 +36611,7 @@
       <c r="K1042" s="2"/>
       <c r="L1042" s="2"/>
     </row>
-    <row r="1043" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1043" s="2" t="s">
         <v>105</v>
       </c>
@@ -36640,7 +36643,7 @@
       <c r="K1043" s="2"/>
       <c r="L1043" s="2"/>
     </row>
-    <row r="1044" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1044" s="2" t="s">
         <v>105</v>
       </c>
@@ -36672,7 +36675,7 @@
       <c r="K1044" s="2"/>
       <c r="L1044" s="2"/>
     </row>
-    <row r="1045" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1045" s="2" t="s">
         <v>105</v>
       </c>
@@ -36704,7 +36707,7 @@
       <c r="K1045" s="2"/>
       <c r="L1045" s="2"/>
     </row>
-    <row r="1046" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1046" s="2" t="s">
         <v>105</v>
       </c>
@@ -36736,7 +36739,7 @@
       <c r="K1046" s="2"/>
       <c r="L1046" s="2"/>
     </row>
-    <row r="1047" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1047" s="2" t="s">
         <v>105</v>
       </c>
@@ -36768,7 +36771,7 @@
       <c r="K1047" s="2"/>
       <c r="L1047" s="2"/>
     </row>
-    <row r="1048" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1048" s="2" t="s">
         <v>105</v>
       </c>
@@ -36800,7 +36803,7 @@
       <c r="K1048" s="2"/>
       <c r="L1048" s="2"/>
     </row>
-    <row r="1049" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1049" s="2" t="s">
         <v>105</v>
       </c>
@@ -36832,7 +36835,7 @@
       <c r="K1049" s="2"/>
       <c r="L1049" s="2"/>
     </row>
-    <row r="1050" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1050" s="2" t="s">
         <v>105</v>
       </c>
@@ -36864,7 +36867,7 @@
       <c r="K1050" s="2"/>
       <c r="L1050" s="2"/>
     </row>
-    <row r="1051" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1051" s="2" t="s">
         <v>105</v>
       </c>
@@ -36896,7 +36899,7 @@
       <c r="K1051" s="2"/>
       <c r="L1051" s="2"/>
     </row>
-    <row r="1052" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1052" s="2" t="s">
         <v>105</v>
       </c>
@@ -36928,7 +36931,7 @@
       <c r="K1052" s="2"/>
       <c r="L1052" s="2"/>
     </row>
-    <row r="1053" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1053" s="2" t="s">
         <v>105</v>
       </c>
@@ -36960,7 +36963,7 @@
       <c r="K1053" s="2"/>
       <c r="L1053" s="2"/>
     </row>
-    <row r="1054" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1054" s="2" t="s">
         <v>105</v>
       </c>
@@ -36992,7 +36995,7 @@
       <c r="K1054" s="2"/>
       <c r="L1054" s="2"/>
     </row>
-    <row r="1055" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1055" s="2" t="s">
         <v>105</v>
       </c>
@@ -37024,7 +37027,7 @@
       <c r="K1055" s="2"/>
       <c r="L1055" s="2"/>
     </row>
-    <row r="1056" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1056" s="2" t="s">
         <v>105</v>
       </c>
@@ -37056,7 +37059,7 @@
       <c r="K1056" s="2"/>
       <c r="L1056" s="2"/>
     </row>
-    <row r="1057" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1057" s="2" t="s">
         <v>105</v>
       </c>
@@ -37088,7 +37091,7 @@
       <c r="K1057" s="2"/>
       <c r="L1057" s="2"/>
     </row>
-    <row r="1058" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1058" s="2" t="s">
         <v>105</v>
       </c>
@@ -37120,7 +37123,7 @@
       <c r="K1058" s="2"/>
       <c r="L1058" s="2"/>
     </row>
-    <row r="1059" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1059" s="2" t="s">
         <v>105</v>
       </c>
@@ -37152,7 +37155,7 @@
       <c r="K1059" s="2"/>
       <c r="L1059" s="2"/>
     </row>
-    <row r="1060" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1060" s="2" t="s">
         <v>105</v>
       </c>
@@ -37184,7 +37187,7 @@
       <c r="K1060" s="2"/>
       <c r="L1060" s="2"/>
     </row>
-    <row r="1061" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1061" s="2" t="s">
         <v>105</v>
       </c>
@@ -37216,7 +37219,7 @@
       <c r="K1061" s="2"/>
       <c r="L1061" s="2"/>
     </row>
-    <row r="1062" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1062" s="2" t="s">
         <v>105</v>
       </c>
@@ -37248,7 +37251,7 @@
       <c r="K1062" s="2"/>
       <c r="L1062" s="2"/>
     </row>
-    <row r="1063" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1063" s="2" t="s">
         <v>105</v>
       </c>
@@ -37280,7 +37283,7 @@
       <c r="K1063" s="2"/>
       <c r="L1063" s="2"/>
     </row>
-    <row r="1064" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1064" s="2" t="s">
         <v>105</v>
       </c>
@@ -37312,7 +37315,7 @@
       <c r="K1064" s="2"/>
       <c r="L1064" s="2"/>
     </row>
-    <row r="1065" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1065" s="2" t="s">
         <v>105</v>
       </c>
@@ -37344,7 +37347,7 @@
       <c r="K1065" s="2"/>
       <c r="L1065" s="2"/>
     </row>
-    <row r="1066" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1066" s="2" t="s">
         <v>105</v>
       </c>
@@ -37376,7 +37379,7 @@
       <c r="K1066" s="2"/>
       <c r="L1066" s="2"/>
     </row>
-    <row r="1067" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1067" s="2" t="s">
         <v>105</v>
       </c>
@@ -37408,7 +37411,7 @@
       <c r="K1067" s="2"/>
       <c r="L1067" s="2"/>
     </row>
-    <row r="1068" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1068" s="2" t="s">
         <v>105</v>
       </c>
@@ -37440,7 +37443,7 @@
       <c r="K1068" s="2"/>
       <c r="L1068" s="2"/>
     </row>
-    <row r="1069" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1069" s="2" t="s">
         <v>105</v>
       </c>
@@ -37472,7 +37475,7 @@
       <c r="K1069" s="2"/>
       <c r="L1069" s="2"/>
     </row>
-    <row r="1070" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1070" s="2" t="s">
         <v>105</v>
       </c>
@@ -37504,7 +37507,7 @@
       <c r="K1070" s="2"/>
       <c r="L1070" s="2"/>
     </row>
-    <row r="1071" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1071" s="2" t="s">
         <v>105</v>
       </c>
@@ -37536,7 +37539,7 @@
       <c r="K1071" s="2"/>
       <c r="L1071" s="2"/>
     </row>
-    <row r="1072" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1072" s="2" t="s">
         <v>105</v>
       </c>
@@ -37568,7 +37571,7 @@
       <c r="K1072" s="2"/>
       <c r="L1072" s="2"/>
     </row>
-    <row r="1073" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1073" s="2" t="s">
         <v>105</v>
       </c>
@@ -37600,7 +37603,7 @@
       <c r="K1073" s="2"/>
       <c r="L1073" s="2"/>
     </row>
-    <row r="1074" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1074" s="2" t="s">
         <v>105</v>
       </c>
@@ -37632,7 +37635,7 @@
       <c r="K1074" s="2"/>
       <c r="L1074" s="2"/>
     </row>
-    <row r="1075" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1075" s="2" t="s">
         <v>105</v>
       </c>
@@ -37664,7 +37667,7 @@
       <c r="K1075" s="2"/>
       <c r="L1075" s="2"/>
     </row>
-    <row r="1076" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1076" s="2" t="s">
         <v>105</v>
       </c>
@@ -37696,7 +37699,7 @@
       <c r="K1076" s="2"/>
       <c r="L1076" s="2"/>
     </row>
-    <row r="1077" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1077" s="2" t="s">
         <v>105</v>
       </c>
@@ -37728,7 +37731,7 @@
       <c r="K1077" s="2"/>
       <c r="L1077" s="2"/>
     </row>
-    <row r="1078" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1078" s="2" t="s">
         <v>105</v>
       </c>
@@ -37760,7 +37763,7 @@
       <c r="K1078" s="2"/>
       <c r="L1078" s="2"/>
     </row>
-    <row r="1079" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1079" s="2" t="s">
         <v>105</v>
       </c>
@@ -37792,7 +37795,7 @@
       <c r="K1079" s="2"/>
       <c r="L1079" s="2"/>
     </row>
-    <row r="1080" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1080" s="2" t="s">
         <v>105</v>
       </c>
@@ -37824,7 +37827,7 @@
       <c r="K1080" s="2"/>
       <c r="L1080" s="2"/>
     </row>
-    <row r="1081" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1081" s="2" t="s">
         <v>105</v>
       </c>
@@ -37856,7 +37859,7 @@
       <c r="K1081" s="2"/>
       <c r="L1081" s="2"/>
     </row>
-    <row r="1082" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1082" s="2" t="s">
         <v>105</v>
       </c>
@@ -37888,7 +37891,7 @@
       <c r="K1082" s="2"/>
       <c r="L1082" s="2"/>
     </row>
-    <row r="1083" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1083" s="2" t="s">
         <v>105</v>
       </c>
@@ -37920,7 +37923,7 @@
       <c r="K1083" s="2"/>
       <c r="L1083" s="2"/>
     </row>
-    <row r="1084" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1084" s="2" t="s">
         <v>105</v>
       </c>
@@ -37952,7 +37955,7 @@
       <c r="K1084" s="2"/>
       <c r="L1084" s="2"/>
     </row>
-    <row r="1085" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1085" s="2" t="s">
         <v>105</v>
       </c>
@@ -37984,7 +37987,7 @@
       <c r="K1085" s="2"/>
       <c r="L1085" s="2"/>
     </row>
-    <row r="1086" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1086" s="2" t="s">
         <v>105</v>
       </c>
@@ -38016,7 +38019,7 @@
       <c r="K1086" s="2"/>
       <c r="L1086" s="2"/>
     </row>
-    <row r="1087" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1087" s="2" t="s">
         <v>105</v>
       </c>
@@ -38046,7 +38049,7 @@
       <c r="K1087" s="2"/>
       <c r="L1087" s="2"/>
     </row>
-    <row r="1088" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1088" s="2" t="s">
         <v>105</v>
       </c>
@@ -38076,7 +38079,7 @@
       <c r="K1088" s="2"/>
       <c r="L1088" s="2"/>
     </row>
-    <row r="1089" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1089" s="2" t="s">
         <v>105</v>
       </c>
@@ -38106,7 +38109,7 @@
       <c r="K1089" s="2"/>
       <c r="L1089" s="2"/>
     </row>
-    <row r="1090" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1090" s="2" t="s">
         <v>105</v>
       </c>
@@ -38136,7 +38139,7 @@
       <c r="K1090" s="2"/>
       <c r="L1090" s="2"/>
     </row>
-    <row r="1091" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1091" s="2" t="s">
         <v>105</v>
       </c>
@@ -38166,7 +38169,7 @@
       <c r="K1091" s="2"/>
       <c r="L1091" s="2"/>
     </row>
-    <row r="1092" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1092" s="2" t="s">
         <v>105</v>
       </c>
@@ -38196,7 +38199,7 @@
       <c r="K1092" s="2"/>
       <c r="L1092" s="2"/>
     </row>
-    <row r="1093" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1093" s="2" t="s">
         <v>105</v>
       </c>
@@ -38226,7 +38229,7 @@
       <c r="K1093" s="2"/>
       <c r="L1093" s="2"/>
     </row>
-    <row r="1094" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1094" s="2" t="s">
         <v>105</v>
       </c>
@@ -38256,7 +38259,7 @@
       <c r="K1094" s="2"/>
       <c r="L1094" s="2"/>
     </row>
-    <row r="1095" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1095" s="2" t="s">
         <v>105</v>
       </c>
@@ -38286,7 +38289,7 @@
       <c r="K1095" s="2"/>
       <c r="L1095" s="2"/>
     </row>
-    <row r="1096" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1096" s="2" t="s">
         <v>105</v>
       </c>
@@ -38318,7 +38321,7 @@
       <c r="K1096" s="2"/>
       <c r="L1096" s="2"/>
     </row>
-    <row r="1097" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1097" s="2" t="s">
         <v>105</v>
       </c>
@@ -38350,7 +38353,7 @@
       <c r="K1097" s="2"/>
       <c r="L1097" s="2"/>
     </row>
-    <row r="1098" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1098" s="2" t="s">
         <v>105</v>
       </c>
@@ -38382,7 +38385,7 @@
       <c r="K1098" s="2"/>
       <c r="L1098" s="2"/>
     </row>
-    <row r="1099" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1099" s="2" t="s">
         <v>105</v>
       </c>
@@ -38415,7 +38418,15 @@
       <c r="L1099" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L1099" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="7">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Entrega Exitosa"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L1099">
       <sortCondition ref="A1"/>
     </sortState>
